--- a/outputs-HGR-r202-archive/g__QALS01_train.xlsx
+++ b/outputs-HGR-r202-archive/g__QALS01_train.xlsx
@@ -503,7 +503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -834,20 +834,20 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS285_1.fasta</t>
+          <t>label_UMGS285_0.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9935921199090749</v>
+        <v>0.9871616302171197</v>
       </c>
       <c r="C14" t="n">
-        <v>2.024654889135127e-07</v>
+        <v>0.000145329709036953</v>
       </c>
       <c r="D14" t="n">
-        <v>0.006407677625436222</v>
+        <v>0.01269304007384337</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9935921199090749</v>
+        <v>0.9871616302171197</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -858,20 +858,20 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS285_10.fasta</t>
+          <t>label_UMGS285_32.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9457934811777526</v>
+        <v>0.9197395931228696</v>
       </c>
       <c r="C15" t="n">
-        <v>1.536698169503871e-06</v>
+        <v>3.454528004319024e-05</v>
       </c>
       <c r="D15" t="n">
-        <v>0.05420498212407786</v>
+        <v>0.08022586159708726</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9457934811777526</v>
+        <v>0.9197395931228696</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -882,20 +882,20 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS285_11.fasta</t>
+          <t>label_UMGS285_36.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.992893189024427</v>
+        <v>0.4226430245933591</v>
       </c>
       <c r="C16" t="n">
-        <v>1.709064525588031e-06</v>
+        <v>0.2615079042866889</v>
       </c>
       <c r="D16" t="n">
-        <v>0.007105101911047408</v>
+        <v>0.315849071119952</v>
       </c>
       <c r="E16" t="n">
-        <v>0.992893189024427</v>
+        <v>0.4226430245933591</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -906,92 +906,92 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS285_17.fasta</t>
+          <t>label_UMGS285_37.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4700194358759867</v>
+        <v>0.5473830721714287</v>
       </c>
       <c r="C17" t="n">
-        <v>1.002068223683844e-06</v>
+        <v>3.463300608592457e-05</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5299795620557897</v>
+        <v>0.4525822948224855</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5299795620557897</v>
+        <v>0.5473830721714287</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>s__QALS01 sp900555925</t>
+          <t>s__QALS01 sp003150575</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS285_22.fasta</t>
+          <t>label_UMGS285_41.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9296614969596216</v>
+        <v>0.1216147191808545</v>
       </c>
       <c r="C18" t="n">
-        <v>5.709366696579128e-06</v>
+        <v>0.01613294601333642</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0703327936736818</v>
+        <v>0.8622523348058092</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9296614969596216</v>
+        <v>0.8622523348058092</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>s__QALS01 sp003150575</t>
+          <t>s__QALS01 sp900555925</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS285_40.fasta</t>
+          <t>label_UMGS285_12.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3714389006830666</v>
+        <v>0.9783831206367434</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4057809862323389</v>
+        <v>1.220258518993352e-05</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2227801130845946</v>
+        <v>0.02160467677806686</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4057809862323389</v>
+        <v>0.9783831206367434</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>s__QALS01 sp900552625</t>
+          <t>s__QALS01 sp003150575</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS285_5.fasta</t>
+          <t>label_UMGS285_14.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9903541488274024</v>
+        <v>0.9718788648308823</v>
       </c>
       <c r="C20" t="n">
-        <v>1.839154139273412e-06</v>
+        <v>1.713383841470541e-06</v>
       </c>
       <c r="D20" t="n">
-        <v>0.009644012018458457</v>
+        <v>0.02811942178527614</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9903541488274024</v>
+        <v>0.9718788648308823</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1002,20 +1002,20 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS285_9.fasta</t>
+          <t>label_UMGS285_18.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9701593361484817</v>
+        <v>0.9843719579990188</v>
       </c>
       <c r="C21" t="n">
-        <v>4.730477340168249e-08</v>
+        <v>0.004727552230241643</v>
       </c>
       <c r="D21" t="n">
-        <v>0.02984061654674492</v>
+        <v>0.01090048977073955</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9701593361484817</v>
+        <v>0.9843719579990188</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1026,20 +1026,20 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS285_0.fasta</t>
+          <t>label_UMGS285_19.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9871616302171197</v>
+        <v>0.9912765669871129</v>
       </c>
       <c r="C22" t="n">
-        <v>0.000145329709036953</v>
+        <v>0.006733701143979746</v>
       </c>
       <c r="D22" t="n">
-        <v>0.01269304007384337</v>
+        <v>0.001989731868907533</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9871616302171197</v>
+        <v>0.9912765669871129</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1050,20 +1050,20 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS285_32.fasta</t>
+          <t>label_UMGS285_24.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9197395931228696</v>
+        <v>0.9170262275742413</v>
       </c>
       <c r="C23" t="n">
-        <v>3.454528004319024e-05</v>
+        <v>0.001105435890052772</v>
       </c>
       <c r="D23" t="n">
-        <v>0.08022586159708726</v>
+        <v>0.08186833653570581</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9197395931228696</v>
+        <v>0.9170262275742413</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1074,20 +1074,20 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS285_36.fasta</t>
+          <t>label_UMGS285_25.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.4226430245933591</v>
+        <v>0.9814730468025771</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2615079042866889</v>
+        <v>0.01456511828670389</v>
       </c>
       <c r="D24" t="n">
-        <v>0.315849071119952</v>
+        <v>0.00396183491071911</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4226430245933591</v>
+        <v>0.9814730468025771</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1098,20 +1098,20 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS285_37.fasta</t>
+          <t>label_UMGS285_15.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.5473830721714287</v>
+        <v>0.9977898854415829</v>
       </c>
       <c r="C25" t="n">
-        <v>3.463300608592457e-05</v>
+        <v>5.803748779889095e-05</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4525822948224855</v>
+        <v>0.002152077070618263</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5473830721714287</v>
+        <v>0.9977898854415829</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1122,44 +1122,44 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS285_41.fasta</t>
+          <t>label_UMGS285_20.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1216147191808545</v>
+        <v>0.7623946177365091</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01613294601333642</v>
+        <v>8.765821864877471e-06</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8622523348058092</v>
+        <v>0.237596616441626</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8622523348058092</v>
+        <v>0.7623946177365091</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>s__QALS01 sp900555925</t>
+          <t>s__QALS01 sp003150575</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS285_12.fasta</t>
+          <t>label_UMGS285_21.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.9783831206367434</v>
+        <v>0.998909633983311</v>
       </c>
       <c r="C27" t="n">
-        <v>1.220258518993352e-05</v>
+        <v>0.0005573513920977531</v>
       </c>
       <c r="D27" t="n">
-        <v>0.02160467677806686</v>
+        <v>0.0005330146245912208</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9783831206367434</v>
+        <v>0.998909633983311</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1170,20 +1170,20 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS285_14.fasta</t>
+          <t>label_UMGS285_26.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.9718788648308823</v>
+        <v>0.9997514599886267</v>
       </c>
       <c r="C28" t="n">
-        <v>1.713383841470541e-06</v>
+        <v>0.0002435908205042475</v>
       </c>
       <c r="D28" t="n">
-        <v>0.02811942178527614</v>
+        <v>4.949190869027026e-06</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9718788648308823</v>
+        <v>0.9997514599886267</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1194,20 +1194,20 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS285_18.fasta</t>
+          <t>label_UMGS285_29.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.9843719579990188</v>
+        <v>0.9727531917108029</v>
       </c>
       <c r="C29" t="n">
-        <v>0.004727552230241643</v>
+        <v>0.02003675487547625</v>
       </c>
       <c r="D29" t="n">
-        <v>0.01090048977073955</v>
+        <v>0.007210053413720879</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9843719579990188</v>
+        <v>0.9727531917108029</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1218,20 +1218,20 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS285_19.fasta</t>
+          <t>label_UMGS285_30.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.9912765669871129</v>
+        <v>0.981936875826832</v>
       </c>
       <c r="C30" t="n">
-        <v>0.006733701143979746</v>
+        <v>0.01681330381736246</v>
       </c>
       <c r="D30" t="n">
-        <v>0.001989731868907533</v>
+        <v>0.001249820355805549</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9912765669871129</v>
+        <v>0.981936875826832</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1242,20 +1242,20 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS285_24.fasta</t>
+          <t>label_UMGS285_31.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.9170262275742413</v>
+        <v>0.9137049317686355</v>
       </c>
       <c r="C31" t="n">
-        <v>0.001105435890052772</v>
+        <v>0.07745721002077278</v>
       </c>
       <c r="D31" t="n">
-        <v>0.08186833653570581</v>
+        <v>0.008837858210591744</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9170262275742413</v>
+        <v>0.9137049317686355</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1266,20 +1266,20 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS285_25.fasta</t>
+          <t>label_UMGS285_34.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.9814730468025771</v>
+        <v>0.9492167106359819</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01456511828670389</v>
+        <v>1.634157401585659e-05</v>
       </c>
       <c r="D32" t="n">
-        <v>0.00396183491071911</v>
+        <v>0.05076694779000224</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9814730468025771</v>
+        <v>0.9492167106359819</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1290,68 +1290,68 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS285_15.fasta</t>
+          <t>label_UMGS285_38.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.9977898854415829</v>
+        <v>0.362876624988735</v>
       </c>
       <c r="C33" t="n">
-        <v>5.803748779889095e-05</v>
+        <v>0.6368260776867213</v>
       </c>
       <c r="D33" t="n">
-        <v>0.002152077070618263</v>
+        <v>0.000297297324543699</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9977898854415829</v>
+        <v>0.6368260776867213</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>s__QALS01 sp003150575</t>
+          <t>s__QALS01 sp900552625</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS285_20.fasta</t>
+          <t>label_UMGS285_39.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.7623946177365091</v>
+        <v>0.1105513383903567</v>
       </c>
       <c r="C34" t="n">
-        <v>8.765821864877471e-06</v>
+        <v>0.8892071941322127</v>
       </c>
       <c r="D34" t="n">
-        <v>0.237596616441626</v>
+        <v>0.0002414674774305016</v>
       </c>
       <c r="E34" t="n">
-        <v>0.7623946177365091</v>
+        <v>0.8892071941322127</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>s__QALS01 sp003150575</t>
+          <t>s__QALS01 sp900552625</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS285_21.fasta</t>
+          <t>label_UMGS285_4.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.998909633983311</v>
+        <v>0.9995384024890627</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0005573513920977531</v>
+        <v>0.0001978225332051512</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0005330146245912208</v>
+        <v>0.0002637749777321477</v>
       </c>
       <c r="E35" t="n">
-        <v>0.998909633983311</v>
+        <v>0.9995384024890627</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1362,44 +1362,44 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS285_26.fasta</t>
+          <t>label_UMGS285_42.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.9997514599886267</v>
+        <v>0.04353413513682468</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0002435908205042475</v>
+        <v>0.5115026662937568</v>
       </c>
       <c r="D36" t="n">
-        <v>4.949190869027026e-06</v>
+        <v>0.4449631985694186</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9997514599886267</v>
+        <v>0.5115026662937568</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>s__QALS01 sp003150575</t>
+          <t>s__QALS01 sp900552625</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS285_29.fasta</t>
+          <t>label_UMGS285_7.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.9727531917108029</v>
+        <v>0.9686973394974377</v>
       </c>
       <c r="C37" t="n">
-        <v>0.02003675487547625</v>
+        <v>7.789826098812031e-05</v>
       </c>
       <c r="D37" t="n">
-        <v>0.007210053413720879</v>
+        <v>0.03122476224157409</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9727531917108029</v>
+        <v>0.9686973394974377</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1410,20 +1410,20 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS285_30.fasta</t>
+          <t>label_UMGS285_8.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.981936875826832</v>
+        <v>0.9944678678426639</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01681330381736246</v>
+        <v>0.0002079557806010187</v>
       </c>
       <c r="D38" t="n">
-        <v>0.001249820355805549</v>
+        <v>0.005324176376734953</v>
       </c>
       <c r="E38" t="n">
-        <v>0.981936875826832</v>
+        <v>0.9944678678426639</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1434,20 +1434,20 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS285_31.fasta</t>
+          <t>label_UMGS285_13.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.9137049317686355</v>
+        <v>0.9809113037362642</v>
       </c>
       <c r="C39" t="n">
-        <v>0.07745721002077278</v>
+        <v>6.556514069560765e-07</v>
       </c>
       <c r="D39" t="n">
-        <v>0.008837858210591744</v>
+        <v>0.01908804061232884</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9137049317686355</v>
+        <v>0.9809113037362642</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1458,20 +1458,20 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS285_34.fasta</t>
+          <t>label_UMGS285_16.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.9492167106359819</v>
+        <v>0.9985004633116701</v>
       </c>
       <c r="C40" t="n">
-        <v>1.634157401585659e-05</v>
+        <v>0.0003034764147570611</v>
       </c>
       <c r="D40" t="n">
-        <v>0.05076694779000224</v>
+        <v>0.001196060273572846</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9492167106359819</v>
+        <v>0.9985004633116701</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1482,68 +1482,68 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS285_38.fasta</t>
+          <t>label_UMGS285_2.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.362876624988735</v>
+        <v>0.9856257553840285</v>
       </c>
       <c r="C41" t="n">
-        <v>0.6368260776867213</v>
+        <v>8.190456316740608e-08</v>
       </c>
       <c r="D41" t="n">
-        <v>0.000297297324543699</v>
+        <v>0.01437416271140836</v>
       </c>
       <c r="E41" t="n">
-        <v>0.6368260776867213</v>
+        <v>0.9856257553840285</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>s__QALS01 sp900552625</t>
+          <t>s__QALS01 sp003150575</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS285_39.fasta</t>
+          <t>label_UMGS285_23.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.1105513383903567</v>
+        <v>0.9975608047871548</v>
       </c>
       <c r="C42" t="n">
-        <v>0.8892071941322127</v>
+        <v>0.001783259191593664</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0002414674774305016</v>
+        <v>0.0006559360212514303</v>
       </c>
       <c r="E42" t="n">
-        <v>0.8892071941322127</v>
+        <v>0.9975608047871548</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>s__QALS01 sp900552625</t>
+          <t>s__QALS01 sp003150575</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS285_4.fasta</t>
+          <t>label_UMGS285_27.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.9995384024890627</v>
+        <v>0.5576294177297174</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0001978225332051512</v>
+        <v>0.4423620431297202</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0002637749777321477</v>
+        <v>8.539140562418703e-06</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9995384024890627</v>
+        <v>0.5576294177297174</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1554,44 +1554,44 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS285_42.fasta</t>
+          <t>label_UMGS285_28.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.04353413513682468</v>
+        <v>0.9299984274132909</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5115026662937568</v>
+        <v>1.001817219886716e-06</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4449631985694186</v>
+        <v>0.0700005707694894</v>
       </c>
       <c r="E44" t="n">
-        <v>0.5115026662937568</v>
+        <v>0.9299984274132909</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>s__QALS01 sp900552625</t>
+          <t>s__QALS01 sp003150575</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS285_7.fasta</t>
+          <t>label_UMGS285_3.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.9686973394974377</v>
+        <v>0.999667037919782</v>
       </c>
       <c r="C45" t="n">
-        <v>7.789826098812031e-05</v>
+        <v>3.506234362813122e-06</v>
       </c>
       <c r="D45" t="n">
-        <v>0.03122476224157409</v>
+        <v>0.0003294558458553011</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9686973394974377</v>
+        <v>0.999667037919782</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1602,20 +1602,20 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS285_8.fasta</t>
+          <t>label_UMGS285_33.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.9944678678426639</v>
+        <v>0.8961796972098971</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0002079557806010187</v>
+        <v>5.627793964267717e-06</v>
       </c>
       <c r="D46" t="n">
-        <v>0.005324176376734953</v>
+        <v>0.1038146749961386</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9944678678426639</v>
+        <v>0.8961796972098971</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1626,20 +1626,20 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS285_13.fasta</t>
+          <t>label_UMGS285_35.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.9809113037362642</v>
+        <v>0.6259758288379206</v>
       </c>
       <c r="C47" t="n">
-        <v>6.556514069560765e-07</v>
+        <v>5.478441223863881e-05</v>
       </c>
       <c r="D47" t="n">
-        <v>0.01908804061232884</v>
+        <v>0.3739693867498408</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9809113037362642</v>
+        <v>0.6259758288379206</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1650,262 +1650,70 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS285_16.fasta</t>
+          <t>label_UMGS285_43.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.9985004633116701</v>
+        <v>0.103067074912037</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0003034764147570611</v>
+        <v>0.4564227098516983</v>
       </c>
       <c r="D48" t="n">
-        <v>0.001196060273572846</v>
+        <v>0.4405102152362647</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9985004633116701</v>
+        <v>0.4564227098516983</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>s__QALS01 sp003150575</t>
+          <t>s__QALS01 sp900552625</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS285_2.fasta</t>
+          <t>label_UMGS285_44.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.9856257553840285</v>
+        <v>7.161292934390158e-05</v>
       </c>
       <c r="C49" t="n">
-        <v>8.190456316740608e-08</v>
+        <v>0.219406744687602</v>
       </c>
       <c r="D49" t="n">
-        <v>0.01437416271140836</v>
+        <v>0.7805216423830542</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9856257553840285</v>
+        <v>0.7805216423830542</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>s__QALS01 sp003150575</t>
+          <t>s__QALS01 sp900555925</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS285_23.fasta</t>
+          <t>label_UMGS285_6.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.9975608047871548</v>
+        <v>0.9927486252786885</v>
       </c>
       <c r="C50" t="n">
-        <v>0.001783259191593664</v>
+        <v>2.551098735638412e-07</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0006559360212514303</v>
+        <v>0.007251119611437981</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9975608047871548</v>
+        <v>0.9927486252786885</v>
       </c>
       <c r="F50" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS285_27.fasta</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0.5576294177297174</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.4423620431297202</v>
-      </c>
-      <c r="D51" t="n">
-        <v>8.539140562418703e-06</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.5576294177297174</v>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS285_28.fasta</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>0.9299984274132909</v>
-      </c>
-      <c r="C52" t="n">
-        <v>1.001817219886716e-06</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.0700005707694894</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.9299984274132909</v>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS285_3.fasta</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>0.999667037919782</v>
-      </c>
-      <c r="C53" t="n">
-        <v>3.506234362813122e-06</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.0003294558458553011</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.999667037919782</v>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS285_33.fasta</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>0.8961796972098971</v>
-      </c>
-      <c r="C54" t="n">
-        <v>5.627793964267717e-06</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.1038146749961386</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0.8961796972098971</v>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS285_35.fasta</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>0.6259758288379206</v>
-      </c>
-      <c r="C55" t="n">
-        <v>5.478441223863881e-05</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.3739693867498408</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0.6259758288379206</v>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS285_43.fasta</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>0.103067074912037</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.4564227098516983</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.4405102152362647</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.4564227098516983</v>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS285_44.fasta</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>7.161292934390158e-05</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.219406744687602</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.7805216423830542</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0.7805216423830542</v>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS285_6.fasta</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>0.9927486252786885</v>
-      </c>
-      <c r="C58" t="n">
-        <v>2.551098735638412e-07</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.007251119611437981</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0.9927486252786885</v>
-      </c>
-      <c r="F58" t="inlineStr">
         <is>
           <t>s__QALS01 sp003150575</t>
         </is>
@@ -1922,7 +1730,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F172"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2565,20 +2373,20 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_103.fasta</t>
+          <t>label_UMGS1535_10.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.009468537831933738</v>
+        <v>0.01077862540666392</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9713076369591778</v>
+        <v>0.868443879525348</v>
       </c>
       <c r="D27" t="n">
-        <v>0.01922382520888848</v>
+        <v>0.1207774950679881</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9713076369591778</v>
+        <v>0.868443879525348</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -2589,20 +2397,20 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_104.fasta</t>
+          <t>label_UMGS1535_101.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.003135780376751181</v>
+        <v>0.01334098483488195</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9963793923788309</v>
+        <v>0.9794730610017326</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0004848272444178999</v>
+        <v>0.007185954163385399</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9963793923788309</v>
+        <v>0.9794730610017326</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -2613,20 +2421,20 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_106.fasta</t>
+          <t>label_UMGS1535_113.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.03104988723832718</v>
+        <v>0.01464215975499127</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9686171789623581</v>
+        <v>0.9758273104222586</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0003329337993146949</v>
+        <v>0.00953052982275028</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9686171789623581</v>
+        <v>0.9758273104222586</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -2637,20 +2445,20 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_112.fasta</t>
+          <t>label_UMGS1535_12.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01926161708714346</v>
+        <v>0.07316997496626557</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9780613668825321</v>
+        <v>0.84691146085624</v>
       </c>
       <c r="D30" t="n">
-        <v>0.002677016030324415</v>
+        <v>0.07991856417749447</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9780613668825321</v>
+        <v>0.84691146085624</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -2661,20 +2469,20 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_114.fasta</t>
+          <t>label_UMGS1535_121.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01436523820895947</v>
+        <v>0.004648032527799168</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9602374134749003</v>
+        <v>0.9952167972543317</v>
       </c>
       <c r="D31" t="n">
-        <v>0.02539734831614021</v>
+        <v>0.000135170217869226</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9602374134749003</v>
+        <v>0.9952167972543317</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -2685,44 +2493,44 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_115.fasta</t>
+          <t>label_UMGS1535_132.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.2594414072813551</v>
+        <v>0.0004382685215619786</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2729865555297459</v>
+        <v>0.9943312871764438</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4675720371888989</v>
+        <v>0.005230444301994343</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4675720371888989</v>
+        <v>0.9943312871764438</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>s__QALS01 sp900555925</t>
+          <t>s__QALS01 sp900552625</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_117.fasta</t>
+          <t>label_UMGS1535_14.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01298874356248517</v>
+        <v>0.01629148558360864</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9626022344270584</v>
+        <v>0.8666907369872452</v>
       </c>
       <c r="D33" t="n">
-        <v>0.02440902201045647</v>
+        <v>0.1170177774291463</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9626022344270584</v>
+        <v>0.8666907369872452</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2733,20 +2541,20 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_120.fasta</t>
+          <t>label_UMGS1535_140.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.005785616156177519</v>
+        <v>0.003735221347144423</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9939011467900005</v>
+        <v>0.994276578786509</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0003132370538219819</v>
+        <v>0.001988199866346626</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9939011467900005</v>
+        <v>0.994276578786509</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2757,20 +2565,20 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_125.fasta</t>
+          <t>label_UMGS1535_141.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01357157896413428</v>
+        <v>0.004073406328271972</v>
       </c>
       <c r="C35" t="n">
-        <v>0.9864276064220157</v>
+        <v>0.9943445246588374</v>
       </c>
       <c r="D35" t="n">
-        <v>8.146138501891194e-07</v>
+        <v>0.001582069012890715</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9864276064220157</v>
+        <v>0.9943445246588374</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2781,20 +2589,20 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_126.fasta</t>
+          <t>label_UMGS1535_145.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01436605477458574</v>
+        <v>0.001295562774755911</v>
       </c>
       <c r="C36" t="n">
-        <v>0.9831248715684084</v>
+        <v>0.9922761189845506</v>
       </c>
       <c r="D36" t="n">
-        <v>0.002509073657005895</v>
+        <v>0.006428318240693456</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9831248715684084</v>
+        <v>0.9922761189845506</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2805,20 +2613,20 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_130.fasta</t>
+          <t>label_UMGS1535_17.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.007413949436067144</v>
+        <v>0.01840446215614269</v>
       </c>
       <c r="C37" t="n">
-        <v>0.9913411139862676</v>
+        <v>0.9798882103322845</v>
       </c>
       <c r="D37" t="n">
-        <v>0.001244936577665401</v>
+        <v>0.001707327511572818</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9913411139862676</v>
+        <v>0.9798882103322845</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2829,20 +2637,20 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_2.fasta</t>
+          <t>label_UMGS1535_26.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.0473565348665901</v>
+        <v>0.004686290835227226</v>
       </c>
       <c r="C38" t="n">
-        <v>0.9230261672698666</v>
+        <v>0.9939239041835602</v>
       </c>
       <c r="D38" t="n">
-        <v>0.02961729786354321</v>
+        <v>0.00138980498121248</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9230261672698666</v>
+        <v>0.9939239041835602</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2853,20 +2661,20 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_21.fasta</t>
+          <t>label_UMGS1535_27.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.01586984694987482</v>
+        <v>0.01295964135560705</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9799990055735986</v>
+        <v>0.9642857531949555</v>
       </c>
       <c r="D39" t="n">
-        <v>0.004131147476526553</v>
+        <v>0.02275460544943753</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9799990055735986</v>
+        <v>0.9642857531949555</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2877,20 +2685,20 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_23.fasta</t>
+          <t>label_UMGS1535_28.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.008504655154289791</v>
+        <v>0.008956821818091692</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9904465547035393</v>
+        <v>0.9857131665375999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.001048790142171028</v>
+        <v>0.00533001164430847</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9904465547035393</v>
+        <v>0.9857131665375999</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2901,20 +2709,20 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_3.fasta</t>
+          <t>label_UMGS1535_34.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.0317922237035715</v>
+        <v>0.01497028043608451</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9533954593298196</v>
+        <v>0.9715831636725171</v>
       </c>
       <c r="D41" t="n">
-        <v>0.01481231696660885</v>
+        <v>0.01344655589139839</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9533954593298196</v>
+        <v>0.9715831636725171</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2925,20 +2733,20 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_33.fasta</t>
+          <t>label_UMGS1535_45.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01865676983304145</v>
+        <v>0.01575042071732438</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9782290433457257</v>
+        <v>0.983282827066943</v>
       </c>
       <c r="D42" t="n">
-        <v>0.003114186821232818</v>
+        <v>0.000966752215732631</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9782290433457257</v>
+        <v>0.983282827066943</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2949,20 +2757,20 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_37.fasta</t>
+          <t>label_UMGS1535_46.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.01873550966723441</v>
+        <v>0.007400523910631727</v>
       </c>
       <c r="C43" t="n">
-        <v>0.9804866011605525</v>
+        <v>0.9618833084097824</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0007778891722129163</v>
+        <v>0.03071616767958581</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9804866011605525</v>
+        <v>0.9618833084097824</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2973,20 +2781,20 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_48.fasta</t>
+          <t>label_UMGS1535_49.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.01788715602936075</v>
+        <v>0.002275884625278753</v>
       </c>
       <c r="C44" t="n">
-        <v>0.9677832403606637</v>
+        <v>0.9927480719143391</v>
       </c>
       <c r="D44" t="n">
-        <v>0.01432960360997565</v>
+        <v>0.004976043460382205</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9677832403606637</v>
+        <v>0.9927480719143391</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2997,20 +2805,20 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_6.fasta</t>
+          <t>label_UMGS1535_54.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.01303926098849979</v>
+        <v>0.0126118216054495</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9799721962332908</v>
+        <v>0.9260637129780264</v>
       </c>
       <c r="D45" t="n">
-        <v>0.006988542778209453</v>
+        <v>0.0613244654165241</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9799721962332908</v>
+        <v>0.9260637129780264</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -3021,20 +2829,20 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_61.fasta</t>
+          <t>label_UMGS1535_56.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.01509542500728814</v>
+        <v>0.01251804372907244</v>
       </c>
       <c r="C46" t="n">
-        <v>0.971081949692429</v>
+        <v>0.9748522860620898</v>
       </c>
       <c r="D46" t="n">
-        <v>0.01382262530028285</v>
+        <v>0.01262967020883767</v>
       </c>
       <c r="E46" t="n">
-        <v>0.971081949692429</v>
+        <v>0.9748522860620898</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -3045,20 +2853,20 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_63.fasta</t>
+          <t>label_UMGS1535_59.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.02174210512002432</v>
+        <v>0.1006940864821738</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9780085385395461</v>
+        <v>0.8273326784213704</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0002493563404295829</v>
+        <v>0.07197323509645585</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9780085385395461</v>
+        <v>0.8273326784213704</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -3069,20 +2877,20 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_69.fasta</t>
+          <t>label_UMGS1535_60.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.02020271319874086</v>
+        <v>0.0189947314747781</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9594153351291532</v>
+        <v>0.9763600416092012</v>
       </c>
       <c r="D48" t="n">
-        <v>0.02038195167210599</v>
+        <v>0.004645226916020688</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9594153351291532</v>
+        <v>0.9763600416092012</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -3093,20 +2901,20 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_7.fasta</t>
+          <t>label_UMGS1535_62.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.01597963750721594</v>
+        <v>0.01644103186225379</v>
       </c>
       <c r="C49" t="n">
-        <v>0.9455446946831032</v>
+        <v>0.9728993168666025</v>
       </c>
       <c r="D49" t="n">
-        <v>0.03847566780968088</v>
+        <v>0.01065965127114373</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9455446946831032</v>
+        <v>0.9728993168666025</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -3117,20 +2925,20 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_73.fasta</t>
+          <t>label_UMGS1535_66.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.01545818792168908</v>
+        <v>0.01060541436810125</v>
       </c>
       <c r="C50" t="n">
-        <v>0.9774630975469415</v>
+        <v>0.9418262377130441</v>
       </c>
       <c r="D50" t="n">
-        <v>0.007078714531369381</v>
+        <v>0.0475683479188546</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9774630975469415</v>
+        <v>0.9418262377130441</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -3141,20 +2949,20 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_77.fasta</t>
+          <t>label_UMGS1535_70.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.01264641311289346</v>
+        <v>0.0110719158822566</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9488418255822825</v>
+        <v>0.9838609763525908</v>
       </c>
       <c r="D51" t="n">
-        <v>0.03851176130482416</v>
+        <v>0.005067107765152535</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9488418255822825</v>
+        <v>0.9838609763525908</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -3165,20 +2973,20 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_81.fasta</t>
+          <t>label_UMGS1535_74.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01474386244409736</v>
+        <v>0.01117878637918222</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9850997346120868</v>
+        <v>0.9790730257247586</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0001564029438159537</v>
+        <v>0.009748187896059147</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9850997346120868</v>
+        <v>0.9790730257247586</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -3189,20 +2997,20 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_83.fasta</t>
+          <t>label_UMGS1535_75.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.004421919018886234</v>
+        <v>0.009905136356663614</v>
       </c>
       <c r="C53" t="n">
-        <v>0.995004912639436</v>
+        <v>0.9363970317365681</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0005731683416777036</v>
+        <v>0.05369783190676832</v>
       </c>
       <c r="E53" t="n">
-        <v>0.995004912639436</v>
+        <v>0.9363970317365681</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -3213,20 +3021,20 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_89.fasta</t>
+          <t>label_UMGS1535_76.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.004330023124030159</v>
+        <v>0.01683849357811907</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9954173210946334</v>
+        <v>0.7907429522859994</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0002526557813363924</v>
+        <v>0.1924185541358815</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9954173210946334</v>
+        <v>0.7907429522859994</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -3237,20 +3045,20 @@
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_93.fasta</t>
+          <t>label_UMGS1535_80.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01535352245313175</v>
+        <v>0.0102199821325364</v>
       </c>
       <c r="C55" t="n">
-        <v>0.9845230068496109</v>
+        <v>0.9753756038954898</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0001234706972573314</v>
+        <v>0.01440441397197379</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9845230068496109</v>
+        <v>0.9753756038954898</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -3261,20 +3069,20 @@
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_10.fasta</t>
+          <t>label_UMGS1535_85.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01077862540666392</v>
+        <v>0.005152601971005469</v>
       </c>
       <c r="C56" t="n">
-        <v>0.868443879525348</v>
+        <v>0.9934132062473502</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1207774950679881</v>
+        <v>0.001434191781644351</v>
       </c>
       <c r="E56" t="n">
-        <v>0.868443879525348</v>
+        <v>0.9934132062473502</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -3285,20 +3093,20 @@
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_101.fasta</t>
+          <t>label_UMGS1535_88.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01334098483488195</v>
+        <v>0.01058442127057159</v>
       </c>
       <c r="C57" t="n">
-        <v>0.9794730610017326</v>
+        <v>0.9835405600693877</v>
       </c>
       <c r="D57" t="n">
-        <v>0.007185954163385399</v>
+        <v>0.005875018660040667</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9794730610017326</v>
+        <v>0.9835405600693877</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -3309,20 +3117,20 @@
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_113.fasta</t>
+          <t>label_UMGS1535_91.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01464215975499127</v>
+        <v>0.03211217097013188</v>
       </c>
       <c r="C58" t="n">
-        <v>0.9758273104222586</v>
+        <v>0.7474659233201139</v>
       </c>
       <c r="D58" t="n">
-        <v>0.00953052982275028</v>
+        <v>0.2204219057097543</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9758273104222586</v>
+        <v>0.7474659233201139</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -3333,20 +3141,20 @@
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_12.fasta</t>
+          <t>label_UMGS1535_92.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.07316997496626557</v>
+        <v>0.006380608088117549</v>
       </c>
       <c r="C59" t="n">
-        <v>0.84691146085624</v>
+        <v>0.9834624660164254</v>
       </c>
       <c r="D59" t="n">
-        <v>0.07991856417749447</v>
+        <v>0.01015692589545703</v>
       </c>
       <c r="E59" t="n">
-        <v>0.84691146085624</v>
+        <v>0.9834624660164254</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -3357,20 +3165,20 @@
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_121.fasta</t>
+          <t>label_UMGS1535_98.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.004648032527799168</v>
+        <v>0.02127291604929602</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9952167972543317</v>
+        <v>0.932422926512477</v>
       </c>
       <c r="D60" t="n">
-        <v>0.000135170217869226</v>
+        <v>0.04630415743822697</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9952167972543317</v>
+        <v>0.932422926512477</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -3381,20 +3189,20 @@
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_132.fasta</t>
+          <t>label_UMGS1535_108.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.0004382685215619786</v>
+        <v>0.002539285036083946</v>
       </c>
       <c r="C61" t="n">
-        <v>0.9943312871764438</v>
+        <v>0.8677569498105527</v>
       </c>
       <c r="D61" t="n">
-        <v>0.005230444301994343</v>
+        <v>0.1297037651533633</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9943312871764438</v>
+        <v>0.8677569498105527</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -3405,20 +3213,20 @@
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_14.fasta</t>
+          <t>label_UMGS1535_111.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.01629148558360864</v>
+        <v>0.002356053983968212</v>
       </c>
       <c r="C62" t="n">
-        <v>0.8666907369872452</v>
+        <v>0.9976360569038439</v>
       </c>
       <c r="D62" t="n">
-        <v>0.1170177774291463</v>
+        <v>7.889112187767958e-06</v>
       </c>
       <c r="E62" t="n">
-        <v>0.8666907369872452</v>
+        <v>0.9976360569038439</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -3429,20 +3237,20 @@
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_140.fasta</t>
+          <t>label_UMGS1535_118.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.003735221347144423</v>
+        <v>0.02092696755660916</v>
       </c>
       <c r="C63" t="n">
-        <v>0.994276578786509</v>
+        <v>0.9584171781017489</v>
       </c>
       <c r="D63" t="n">
-        <v>0.001988199866346626</v>
+        <v>0.02065585434164194</v>
       </c>
       <c r="E63" t="n">
-        <v>0.994276578786509</v>
+        <v>0.9584171781017489</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -3453,20 +3261,20 @@
     <row r="64">
       <c r="A64" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_141.fasta</t>
+          <t>label_UMGS1535_122.fasta</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.004073406328271972</v>
+        <v>0.007318600370815834</v>
       </c>
       <c r="C64" t="n">
-        <v>0.9943445246588374</v>
+        <v>0.9483349608290849</v>
       </c>
       <c r="D64" t="n">
-        <v>0.001582069012890715</v>
+        <v>0.04434643880009938</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9943445246588374</v>
+        <v>0.9483349608290849</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -3477,20 +3285,20 @@
     <row r="65">
       <c r="A65" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_145.fasta</t>
+          <t>label_UMGS1535_123.fasta</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.001295562774755911</v>
+        <v>0.002237075031248489</v>
       </c>
       <c r="C65" t="n">
-        <v>0.9922761189845506</v>
+        <v>0.9956570324739042</v>
       </c>
       <c r="D65" t="n">
-        <v>0.006428318240693456</v>
+        <v>0.002105892494847343</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9922761189845506</v>
+        <v>0.9956570324739042</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -3501,20 +3309,20 @@
     <row r="66">
       <c r="A66" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_17.fasta</t>
+          <t>label_UMGS1535_128.fasta</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.01840446215614269</v>
+        <v>0.04930198962520368</v>
       </c>
       <c r="C66" t="n">
-        <v>0.9798882103322845</v>
+        <v>0.946137679053485</v>
       </c>
       <c r="D66" t="n">
-        <v>0.001707327511572818</v>
+        <v>0.004560331321311373</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9798882103322845</v>
+        <v>0.946137679053485</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -3525,20 +3333,20 @@
     <row r="67">
       <c r="A67" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_26.fasta</t>
+          <t>label_UMGS1535_129.fasta</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.004686290835227226</v>
+        <v>0.004176369542909994</v>
       </c>
       <c r="C67" t="n">
-        <v>0.9939239041835602</v>
+        <v>0.9958168929665793</v>
       </c>
       <c r="D67" t="n">
-        <v>0.00138980498121248</v>
+        <v>6.737490510898344e-06</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9939239041835602</v>
+        <v>0.9958168929665793</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -3549,20 +3357,20 @@
     <row r="68">
       <c r="A68" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_27.fasta</t>
+          <t>label_UMGS1535_13.fasta</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.01295964135560705</v>
+        <v>0.004087490470668058</v>
       </c>
       <c r="C68" t="n">
-        <v>0.9642857531949555</v>
+        <v>0.9941431869128186</v>
       </c>
       <c r="D68" t="n">
-        <v>0.02275460544943753</v>
+        <v>0.001769322616513353</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9642857531949555</v>
+        <v>0.9941431869128186</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -3573,20 +3381,20 @@
     <row r="69">
       <c r="A69" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_28.fasta</t>
+          <t>label_UMGS1535_133.fasta</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.008956821818091692</v>
+        <v>0.02889192429154231</v>
       </c>
       <c r="C69" t="n">
-        <v>0.9857131665375999</v>
+        <v>0.952815607029409</v>
       </c>
       <c r="D69" t="n">
-        <v>0.00533001164430847</v>
+        <v>0.0182924686790487</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9857131665375999</v>
+        <v>0.952815607029409</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -3597,20 +3405,20 @@
     <row r="70">
       <c r="A70" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_34.fasta</t>
+          <t>label_UMGS1535_135.fasta</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.01497028043608451</v>
+        <v>0.005939800999922718</v>
       </c>
       <c r="C70" t="n">
-        <v>0.9715831636725171</v>
+        <v>0.9932489893715299</v>
       </c>
       <c r="D70" t="n">
-        <v>0.01344655589139839</v>
+        <v>0.0008112096285472569</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9715831636725171</v>
+        <v>0.9932489893715299</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -3621,20 +3429,20 @@
     <row r="71">
       <c r="A71" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_45.fasta</t>
+          <t>label_UMGS1535_136.fasta</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.01575042071732438</v>
+        <v>0.0179782078183547</v>
       </c>
       <c r="C71" t="n">
-        <v>0.983282827066943</v>
+        <v>0.982021791858199</v>
       </c>
       <c r="D71" t="n">
-        <v>0.000966752215732631</v>
+        <v>3.234461695349284e-10</v>
       </c>
       <c r="E71" t="n">
-        <v>0.983282827066943</v>
+        <v>0.982021791858199</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -3645,20 +3453,20 @@
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_46.fasta</t>
+          <t>label_UMGS1535_137.fasta</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.007400523910631727</v>
+        <v>0.0218499568764575</v>
       </c>
       <c r="C72" t="n">
-        <v>0.9618833084097824</v>
+        <v>0.6539988184386332</v>
       </c>
       <c r="D72" t="n">
-        <v>0.03071616767958581</v>
+        <v>0.3241512246849094</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9618833084097824</v>
+        <v>0.6539988184386332</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -3669,20 +3477,20 @@
     <row r="73">
       <c r="A73" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_49.fasta</t>
+          <t>label_UMGS1535_142.fasta</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.002275884625278753</v>
+        <v>0.002212547117495477</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9927480719143391</v>
+        <v>0.9977099352618409</v>
       </c>
       <c r="D73" t="n">
-        <v>0.004976043460382205</v>
+        <v>7.751762066356595e-05</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9927480719143391</v>
+        <v>0.9977099352618409</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -3693,20 +3501,20 @@
     <row r="74">
       <c r="A74" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_54.fasta</t>
+          <t>label_UMGS1535_144.fasta</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.0126118216054495</v>
+        <v>0.002993440685464701</v>
       </c>
       <c r="C74" t="n">
-        <v>0.9260637129780264</v>
+        <v>0.9859116396607359</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0613244654165241</v>
+        <v>0.01109491965379936</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9260637129780264</v>
+        <v>0.9859116396607359</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -3717,20 +3525,20 @@
     <row r="75">
       <c r="A75" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_56.fasta</t>
+          <t>label_UMGS1535_19.fasta</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.01251804372907244</v>
+        <v>0.006961767632480438</v>
       </c>
       <c r="C75" t="n">
-        <v>0.9748522860620898</v>
+        <v>0.9926349368896502</v>
       </c>
       <c r="D75" t="n">
-        <v>0.01262967020883767</v>
+        <v>0.0004032954778693868</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9748522860620898</v>
+        <v>0.9926349368896502</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -3741,20 +3549,20 @@
     <row r="76">
       <c r="A76" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_59.fasta</t>
+          <t>label_UMGS1535_20.fasta</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.1006940864821738</v>
+        <v>0.009528436236573731</v>
       </c>
       <c r="C76" t="n">
-        <v>0.8273326784213704</v>
+        <v>0.976813041266878</v>
       </c>
       <c r="D76" t="n">
-        <v>0.07197323509645585</v>
+        <v>0.01365852249654833</v>
       </c>
       <c r="E76" t="n">
-        <v>0.8273326784213704</v>
+        <v>0.976813041266878</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -3765,20 +3573,20 @@
     <row r="77">
       <c r="A77" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_60.fasta</t>
+          <t>label_UMGS1535_22.fasta</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.0189947314747781</v>
+        <v>0.001688268515604041</v>
       </c>
       <c r="C77" t="n">
-        <v>0.9763600416092012</v>
+        <v>0.9981159015629223</v>
       </c>
       <c r="D77" t="n">
-        <v>0.004645226916020688</v>
+        <v>0.0001958299214735952</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9763600416092012</v>
+        <v>0.9981159015629223</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -3789,20 +3597,20 @@
     <row r="78">
       <c r="A78" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_62.fasta</t>
+          <t>label_UMGS1535_24.fasta</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.01644103186225379</v>
+        <v>0.005023729875369944</v>
       </c>
       <c r="C78" t="n">
-        <v>0.9728993168666025</v>
+        <v>0.9926319433028109</v>
       </c>
       <c r="D78" t="n">
-        <v>0.01065965127114373</v>
+        <v>0.002344326821819068</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9728993168666025</v>
+        <v>0.9926319433028109</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -3813,20 +3621,20 @@
     <row r="79">
       <c r="A79" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_66.fasta</t>
+          <t>label_UMGS1535_25.fasta</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.01060541436810125</v>
+        <v>0.01362439978896597</v>
       </c>
       <c r="C79" t="n">
-        <v>0.9418262377130441</v>
+        <v>0.9852109480184414</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0475683479188546</v>
+        <v>0.001164652192592527</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9418262377130441</v>
+        <v>0.9852109480184414</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -3837,20 +3645,20 @@
     <row r="80">
       <c r="A80" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_70.fasta</t>
+          <t>label_UMGS1535_32.fasta</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.0110719158822566</v>
+        <v>0.02315824625461527</v>
       </c>
       <c r="C80" t="n">
-        <v>0.9838609763525908</v>
+        <v>0.9756992002546502</v>
       </c>
       <c r="D80" t="n">
-        <v>0.005067107765152535</v>
+        <v>0.001142553490734608</v>
       </c>
       <c r="E80" t="n">
-        <v>0.9838609763525908</v>
+        <v>0.9756992002546502</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -3861,20 +3669,20 @@
     <row r="81">
       <c r="A81" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_74.fasta</t>
+          <t>label_UMGS1535_39.fasta</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.01117878637918222</v>
+        <v>0.04600449791906194</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9790730257247586</v>
+        <v>0.9313379808048631</v>
       </c>
       <c r="D81" t="n">
-        <v>0.009748187896059147</v>
+        <v>0.02265752127607491</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9790730257247586</v>
+        <v>0.9313379808048631</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -3885,20 +3693,20 @@
     <row r="82">
       <c r="A82" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_75.fasta</t>
+          <t>label_UMGS1535_40.fasta</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.009905136356663614</v>
+        <v>0.05509592436835886</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9363970317365681</v>
+        <v>0.6829356933861822</v>
       </c>
       <c r="D82" t="n">
-        <v>0.05369783190676832</v>
+        <v>0.261968382245459</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9363970317365681</v>
+        <v>0.6829356933861822</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -3909,20 +3717,20 @@
     <row r="83">
       <c r="A83" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_76.fasta</t>
+          <t>label_UMGS1535_5.fasta</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.01683849357811907</v>
+        <v>0.003825960306449906</v>
       </c>
       <c r="C83" t="n">
-        <v>0.7907429522859994</v>
+        <v>0.9931453218136727</v>
       </c>
       <c r="D83" t="n">
-        <v>0.1924185541358815</v>
+        <v>0.003028717879877383</v>
       </c>
       <c r="E83" t="n">
-        <v>0.7907429522859994</v>
+        <v>0.9931453218136727</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -3933,20 +3741,20 @@
     <row r="84">
       <c r="A84" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_80.fasta</t>
+          <t>label_UMGS1535_58.fasta</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.0102199821325364</v>
+        <v>0.001461253390258109</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9753756038954898</v>
+        <v>0.9985135158693651</v>
       </c>
       <c r="D84" t="n">
-        <v>0.01440441397197379</v>
+        <v>2.523074037669429e-05</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9753756038954898</v>
+        <v>0.9985135158693651</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -3957,20 +3765,20 @@
     <row r="85">
       <c r="A85" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_85.fasta</t>
+          <t>label_UMGS1535_64.fasta</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.005152601971005469</v>
+        <v>0.02697962572871454</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9934132062473502</v>
+        <v>0.9635348714006937</v>
       </c>
       <c r="D85" t="n">
-        <v>0.001434191781644351</v>
+        <v>0.009485502870591831</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9934132062473502</v>
+        <v>0.9635348714006937</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -3981,20 +3789,20 @@
     <row r="86">
       <c r="A86" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_88.fasta</t>
+          <t>label_UMGS1535_65.fasta</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.01058442127057159</v>
+        <v>0.007705257122284505</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9835405600693877</v>
+        <v>0.9803894710898454</v>
       </c>
       <c r="D86" t="n">
-        <v>0.005875018660040667</v>
+        <v>0.01190527178787014</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9835405600693877</v>
+        <v>0.9803894710898454</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -4005,20 +3813,20 @@
     <row r="87">
       <c r="A87" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_91.fasta</t>
+          <t>label_UMGS1535_68.fasta</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.03211217097013188</v>
+        <v>0.02525943458916289</v>
       </c>
       <c r="C87" t="n">
-        <v>0.7474659233201139</v>
+        <v>0.9097370190977002</v>
       </c>
       <c r="D87" t="n">
-        <v>0.2204219057097543</v>
+        <v>0.06500354631313687</v>
       </c>
       <c r="E87" t="n">
-        <v>0.7474659233201139</v>
+        <v>0.9097370190977002</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -4029,20 +3837,20 @@
     <row r="88">
       <c r="A88" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_92.fasta</t>
+          <t>label_UMGS1535_72.fasta</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.006380608088117549</v>
+        <v>0.004280975423659525</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9834624660164254</v>
+        <v>0.9950223265540761</v>
       </c>
       <c r="D88" t="n">
-        <v>0.01015692589545703</v>
+        <v>0.0006966980222644796</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9834624660164254</v>
+        <v>0.9950223265540761</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -4053,20 +3861,20 @@
     <row r="89">
       <c r="A89" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_98.fasta</t>
+          <t>label_UMGS1535_82.fasta</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.02127291604929602</v>
+        <v>0.0008404893699973177</v>
       </c>
       <c r="C89" t="n">
-        <v>0.932422926512477</v>
+        <v>0.9990364143464835</v>
       </c>
       <c r="D89" t="n">
-        <v>0.04630415743822697</v>
+        <v>0.000123096283519348</v>
       </c>
       <c r="E89" t="n">
-        <v>0.932422926512477</v>
+        <v>0.9990364143464835</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -4077,20 +3885,20 @@
     <row r="90">
       <c r="A90" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_108.fasta</t>
+          <t>label_UMGS1535_9.fasta</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.002539285036083946</v>
+        <v>0.009728104258160225</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8677569498105527</v>
+        <v>0.9889729564373853</v>
       </c>
       <c r="D90" t="n">
-        <v>0.1297037651533633</v>
+        <v>0.001298939304454504</v>
       </c>
       <c r="E90" t="n">
-        <v>0.8677569498105527</v>
+        <v>0.9889729564373853</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -4101,20 +3909,20 @@
     <row r="91">
       <c r="A91" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_111.fasta</t>
+          <t>label_UMGS1535_90.fasta</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.002356053983968212</v>
+        <v>0.004553801660490003</v>
       </c>
       <c r="C91" t="n">
-        <v>0.9976360569038439</v>
+        <v>0.9925060670558818</v>
       </c>
       <c r="D91" t="n">
-        <v>7.889112187767958e-06</v>
+        <v>0.002940131283628082</v>
       </c>
       <c r="E91" t="n">
-        <v>0.9976360569038439</v>
+        <v>0.9925060670558818</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4125,20 +3933,20 @@
     <row r="92">
       <c r="A92" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_118.fasta</t>
+          <t>label_UMGS1535_96.fasta</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.02092696755660916</v>
+        <v>0.02611477897356143</v>
       </c>
       <c r="C92" t="n">
-        <v>0.9584171781017489</v>
+        <v>0.9218061311696467</v>
       </c>
       <c r="D92" t="n">
-        <v>0.02065585434164194</v>
+        <v>0.05207908985679184</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9584171781017489</v>
+        <v>0.9218061311696467</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4149,20 +3957,20 @@
     <row r="93">
       <c r="A93" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_122.fasta</t>
+          <t>label_UMGS1535_97.fasta</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.007318600370815834</v>
+        <v>0.003499191054755231</v>
       </c>
       <c r="C93" t="n">
-        <v>0.9483349608290849</v>
+        <v>0.9522145706215023</v>
       </c>
       <c r="D93" t="n">
-        <v>0.04434643880009938</v>
+        <v>0.04428623832374255</v>
       </c>
       <c r="E93" t="n">
-        <v>0.9483349608290849</v>
+        <v>0.9522145706215023</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4173,20 +3981,20 @@
     <row r="94">
       <c r="A94" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_123.fasta</t>
+          <t>label_UMGS1535_1.fasta</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.002237075031248489</v>
+        <v>0.2044606207503469</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9956570324739042</v>
+        <v>0.7955343100827839</v>
       </c>
       <c r="D94" t="n">
-        <v>0.002105892494847343</v>
+        <v>5.06916686922684e-06</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9956570324739042</v>
+        <v>0.7955343100827839</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -4197,20 +4005,20 @@
     <row r="95">
       <c r="A95" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_128.fasta</t>
+          <t>label_UMGS1535_102.fasta</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.04930198962520368</v>
+        <v>0.002947665801811171</v>
       </c>
       <c r="C95" t="n">
-        <v>0.946137679053485</v>
+        <v>0.9955146746267972</v>
       </c>
       <c r="D95" t="n">
-        <v>0.004560331321311373</v>
+        <v>0.001537659571391638</v>
       </c>
       <c r="E95" t="n">
-        <v>0.946137679053485</v>
+        <v>0.9955146746267972</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -4221,20 +4029,20 @@
     <row r="96">
       <c r="A96" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_129.fasta</t>
+          <t>label_UMGS1535_107.fasta</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.004176369542909994</v>
+        <v>0.002430116202549523</v>
       </c>
       <c r="C96" t="n">
-        <v>0.9958168929665793</v>
+        <v>0.9975543013541771</v>
       </c>
       <c r="D96" t="n">
-        <v>6.737490510898344e-06</v>
+        <v>1.558244327333429e-05</v>
       </c>
       <c r="E96" t="n">
-        <v>0.9958168929665793</v>
+        <v>0.9975543013541771</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4245,20 +4053,20 @@
     <row r="97">
       <c r="A97" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_13.fasta</t>
+          <t>label_UMGS1535_109.fasta</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.004087490470668058</v>
+        <v>0.009028958370770159</v>
       </c>
       <c r="C97" t="n">
-        <v>0.9941431869128186</v>
+        <v>0.9897826041942108</v>
       </c>
       <c r="D97" t="n">
-        <v>0.001769322616513353</v>
+        <v>0.001188437435018976</v>
       </c>
       <c r="E97" t="n">
-        <v>0.9941431869128186</v>
+        <v>0.9897826041942108</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -4269,20 +4077,20 @@
     <row r="98">
       <c r="A98" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_133.fasta</t>
+          <t>label_UMGS1535_116.fasta</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.02889192429154231</v>
+        <v>0.009188640551828412</v>
       </c>
       <c r="C98" t="n">
-        <v>0.952815607029409</v>
+        <v>0.9719219323819515</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0182924686790487</v>
+        <v>0.01888942706622004</v>
       </c>
       <c r="E98" t="n">
-        <v>0.952815607029409</v>
+        <v>0.9719219323819515</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -4293,20 +4101,20 @@
     <row r="99">
       <c r="A99" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_135.fasta</t>
+          <t>label_UMGS1535_127.fasta</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.005939800999922718</v>
+        <v>0.001497565717676961</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9932489893715299</v>
+        <v>0.9984994949138802</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0008112096285472569</v>
+        <v>2.939368442845253e-06</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9932489893715299</v>
+        <v>0.9984994949138802</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -4317,20 +4125,20 @@
     <row r="100">
       <c r="A100" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_136.fasta</t>
+          <t>label_UMGS1535_131.fasta</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.0179782078183547</v>
+        <v>0.0004813216165948844</v>
       </c>
       <c r="C100" t="n">
-        <v>0.982021791858199</v>
+        <v>0.9995186734904691</v>
       </c>
       <c r="D100" t="n">
-        <v>3.234461695349284e-10</v>
+        <v>4.892935946936515e-09</v>
       </c>
       <c r="E100" t="n">
-        <v>0.982021791858199</v>
+        <v>0.9995186734904691</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -4341,20 +4149,20 @@
     <row r="101">
       <c r="A101" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_137.fasta</t>
+          <t>label_UMGS1535_134.fasta</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.0218499568764575</v>
+        <v>0.03273724422189595</v>
       </c>
       <c r="C101" t="n">
-        <v>0.6539988184386332</v>
+        <v>0.9054825088708442</v>
       </c>
       <c r="D101" t="n">
-        <v>0.3241512246849094</v>
+        <v>0.06178024690725985</v>
       </c>
       <c r="E101" t="n">
-        <v>0.6539988184386332</v>
+        <v>0.9054825088708442</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -4365,20 +4173,20 @@
     <row r="102">
       <c r="A102" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_142.fasta</t>
+          <t>label_UMGS1535_138.fasta</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.002212547117495477</v>
+        <v>0.001288482301189096</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9977099352618409</v>
+        <v>0.9984841107791989</v>
       </c>
       <c r="D102" t="n">
-        <v>7.751762066356595e-05</v>
+        <v>0.0002274069196120072</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9977099352618409</v>
+        <v>0.9984841107791989</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -4389,20 +4197,20 @@
     <row r="103">
       <c r="A103" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_144.fasta</t>
+          <t>label_UMGS1535_139.fasta</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.002993440685464701</v>
+        <v>0.05932982452022303</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9859116396607359</v>
+        <v>0.9361631742390276</v>
       </c>
       <c r="D103" t="n">
-        <v>0.01109491965379936</v>
+        <v>0.004507001240749296</v>
       </c>
       <c r="E103" t="n">
-        <v>0.9859116396607359</v>
+        <v>0.9361631742390276</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -4413,20 +4221,20 @@
     <row r="104">
       <c r="A104" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_19.fasta</t>
+          <t>label_UMGS1535_15.fasta</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.006961767632480438</v>
+        <v>0.003326466052902439</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9926349368896502</v>
+        <v>0.9966733788229662</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0004032954778693868</v>
+        <v>1.551241314683134e-07</v>
       </c>
       <c r="E104" t="n">
-        <v>0.9926349368896502</v>
+        <v>0.9966733788229662</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -4437,44 +4245,44 @@
     <row r="105">
       <c r="A105" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_20.fasta</t>
+          <t>label_UMGS1535_18.fasta</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.009528436236573731</v>
+        <v>0.08002035193782617</v>
       </c>
       <c r="C105" t="n">
-        <v>0.976813041266878</v>
+        <v>0.4509844131157536</v>
       </c>
       <c r="D105" t="n">
-        <v>0.01365852249654833</v>
+        <v>0.4689952349464204</v>
       </c>
       <c r="E105" t="n">
-        <v>0.976813041266878</v>
+        <v>0.4689952349464204</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>s__QALS01 sp900552625</t>
+          <t>s__QALS01 sp900555925</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_22.fasta</t>
+          <t>label_UMGS1535_31.fasta</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.001688268515604041</v>
+        <v>0.003368032992513568</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9981159015629223</v>
+        <v>0.9965495834799281</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0001958299214735952</v>
+        <v>8.238352755839599e-05</v>
       </c>
       <c r="E106" t="n">
-        <v>0.9981159015629223</v>
+        <v>0.9965495834799281</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -4485,20 +4293,20 @@
     <row r="107">
       <c r="A107" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_24.fasta</t>
+          <t>label_UMGS1535_35.fasta</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.005023729875369944</v>
+        <v>0.00278884009428797</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9926319433028109</v>
+        <v>0.9972052042479278</v>
       </c>
       <c r="D107" t="n">
-        <v>0.002344326821819068</v>
+        <v>5.955657784307555e-06</v>
       </c>
       <c r="E107" t="n">
-        <v>0.9926319433028109</v>
+        <v>0.9972052042479278</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -4509,20 +4317,20 @@
     <row r="108">
       <c r="A108" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_25.fasta</t>
+          <t>label_UMGS1535_38.fasta</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.01362439978896597</v>
+        <v>0.01227406285301394</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9852109480184414</v>
+        <v>0.9573836398491271</v>
       </c>
       <c r="D108" t="n">
-        <v>0.001164652192592527</v>
+        <v>0.03034229729785895</v>
       </c>
       <c r="E108" t="n">
-        <v>0.9852109480184414</v>
+        <v>0.9573836398491271</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -4533,20 +4341,20 @@
     <row r="109">
       <c r="A109" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_32.fasta</t>
+          <t>label_UMGS1535_42.fasta</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.02315824625461527</v>
+        <v>0.002112154385865853</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9756992002546502</v>
+        <v>0.9978877747552392</v>
       </c>
       <c r="D109" t="n">
-        <v>0.001142553490734608</v>
+        <v>7.085889486318602e-08</v>
       </c>
       <c r="E109" t="n">
-        <v>0.9756992002546502</v>
+        <v>0.9978877747552392</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -4557,20 +4365,20 @@
     <row r="110">
       <c r="A110" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_39.fasta</t>
+          <t>label_UMGS1535_51.fasta</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.04600449791906194</v>
+        <v>0.0025843811315596</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9313379808048631</v>
+        <v>0.9974153736564326</v>
       </c>
       <c r="D110" t="n">
-        <v>0.02265752127607491</v>
+        <v>2.452120079037783e-07</v>
       </c>
       <c r="E110" t="n">
-        <v>0.9313379808048631</v>
+        <v>0.9974153736564326</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -4581,20 +4389,20 @@
     <row r="111">
       <c r="A111" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_40.fasta</t>
+          <t>label_UMGS1535_52.fasta</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.05509592436835886</v>
+        <v>0.008754784933938591</v>
       </c>
       <c r="C111" t="n">
-        <v>0.6829356933861822</v>
+        <v>0.9888449351971293</v>
       </c>
       <c r="D111" t="n">
-        <v>0.261968382245459</v>
+        <v>0.002400279868931987</v>
       </c>
       <c r="E111" t="n">
-        <v>0.6829356933861822</v>
+        <v>0.9888449351971293</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -4605,20 +4413,20 @@
     <row r="112">
       <c r="A112" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_5.fasta</t>
+          <t>label_UMGS1535_55.fasta</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.003825960306449906</v>
+        <v>0.005384751266882939</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9931453218136727</v>
+        <v>0.9924514018945955</v>
       </c>
       <c r="D112" t="n">
-        <v>0.003028717879877383</v>
+        <v>0.002163846838521537</v>
       </c>
       <c r="E112" t="n">
-        <v>0.9931453218136727</v>
+        <v>0.9924514018945955</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -4629,20 +4437,20 @@
     <row r="113">
       <c r="A113" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_58.fasta</t>
+          <t>label_UMGS1535_67.fasta</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.001461253390258109</v>
+        <v>0.004383226598814603</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9985135158693651</v>
+        <v>0.9922356017004584</v>
       </c>
       <c r="D113" t="n">
-        <v>2.523074037669429e-05</v>
+        <v>0.003381171700727</v>
       </c>
       <c r="E113" t="n">
-        <v>0.9985135158693651</v>
+        <v>0.9922356017004584</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -4653,20 +4461,20 @@
     <row r="114">
       <c r="A114" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_64.fasta</t>
+          <t>label_UMGS1535_79.fasta</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.02697962572871454</v>
+        <v>0.005729210356226927</v>
       </c>
       <c r="C114" t="n">
-        <v>0.9635348714006937</v>
+        <v>0.9936099701983999</v>
       </c>
       <c r="D114" t="n">
-        <v>0.009485502870591831</v>
+        <v>0.0006608194453731739</v>
       </c>
       <c r="E114" t="n">
-        <v>0.9635348714006937</v>
+        <v>0.9936099701983999</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -4677,20 +4485,20 @@
     <row r="115">
       <c r="A115" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_65.fasta</t>
+          <t>label_UMGS1535_8.fasta</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.007705257122284505</v>
+        <v>0.002094364844158978</v>
       </c>
       <c r="C115" t="n">
-        <v>0.9803894710898454</v>
+        <v>0.9979053669059434</v>
       </c>
       <c r="D115" t="n">
-        <v>0.01190527178787014</v>
+        <v>2.682498976570782e-07</v>
       </c>
       <c r="E115" t="n">
-        <v>0.9803894710898454</v>
+        <v>0.9979053669059434</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -4701,20 +4509,20 @@
     <row r="116">
       <c r="A116" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_68.fasta</t>
+          <t>label_UMGS1535_84.fasta</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.02525943458916289</v>
+        <v>0.0104970286176327</v>
       </c>
       <c r="C116" t="n">
-        <v>0.9097370190977002</v>
+        <v>0.9801221727902628</v>
       </c>
       <c r="D116" t="n">
-        <v>0.06500354631313687</v>
+        <v>0.009380798592104497</v>
       </c>
       <c r="E116" t="n">
-        <v>0.9097370190977002</v>
+        <v>0.9801221727902628</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -4725,20 +4533,20 @@
     <row r="117">
       <c r="A117" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_72.fasta</t>
+          <t>label_UMGS1535_87.fasta</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.004280975423659525</v>
+        <v>0.002328388792512256</v>
       </c>
       <c r="C117" t="n">
-        <v>0.9950223265540761</v>
+        <v>0.997671598693895</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0006966980222644796</v>
+        <v>1.251359260131496e-08</v>
       </c>
       <c r="E117" t="n">
-        <v>0.9950223265540761</v>
+        <v>0.997671598693895</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -4749,20 +4557,20 @@
     <row r="118">
       <c r="A118" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_82.fasta</t>
+          <t>label_UMGS1535_94.fasta</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.0008404893699973177</v>
+        <v>0.004519160980435272</v>
       </c>
       <c r="C118" t="n">
-        <v>0.9990364143464835</v>
+        <v>0.9951449336103326</v>
       </c>
       <c r="D118" t="n">
-        <v>0.000123096283519348</v>
+        <v>0.0003359054092320795</v>
       </c>
       <c r="E118" t="n">
-        <v>0.9990364143464835</v>
+        <v>0.9951449336103326</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -4773,20 +4581,20 @@
     <row r="119">
       <c r="A119" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_9.fasta</t>
+          <t>label_UMGS1535_0.fasta</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.009728104258160225</v>
+        <v>0.002402474201771865</v>
       </c>
       <c r="C119" t="n">
-        <v>0.9889729564373853</v>
+        <v>0.9922195250351137</v>
       </c>
       <c r="D119" t="n">
-        <v>0.001298939304454504</v>
+        <v>0.005378000763114498</v>
       </c>
       <c r="E119" t="n">
-        <v>0.9889729564373853</v>
+        <v>0.9922195250351137</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -4797,20 +4605,20 @@
     <row r="120">
       <c r="A120" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_90.fasta</t>
+          <t>label_UMGS1535_100.fasta</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.004553801660490003</v>
+        <v>0.002475478686384112</v>
       </c>
       <c r="C120" t="n">
-        <v>0.9925060670558818</v>
+        <v>0.9968008176779883</v>
       </c>
       <c r="D120" t="n">
-        <v>0.002940131283628082</v>
+        <v>0.0007237036356275882</v>
       </c>
       <c r="E120" t="n">
-        <v>0.9925060670558818</v>
+        <v>0.9968008176779883</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -4821,20 +4629,20 @@
     <row r="121">
       <c r="A121" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_96.fasta</t>
+          <t>label_UMGS1535_105.fasta</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.02611477897356143</v>
+        <v>0.005872359282298472</v>
       </c>
       <c r="C121" t="n">
-        <v>0.9218061311696467</v>
+        <v>0.8472123767754044</v>
       </c>
       <c r="D121" t="n">
-        <v>0.05207908985679184</v>
+        <v>0.1469152639422971</v>
       </c>
       <c r="E121" t="n">
-        <v>0.9218061311696467</v>
+        <v>0.8472123767754044</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -4845,20 +4653,20 @@
     <row r="122">
       <c r="A122" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_97.fasta</t>
+          <t>label_UMGS1535_11.fasta</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.003499191054755231</v>
+        <v>0.07790497815611545</v>
       </c>
       <c r="C122" t="n">
-        <v>0.9522145706215023</v>
+        <v>0.8984443758623541</v>
       </c>
       <c r="D122" t="n">
-        <v>0.04428623832374255</v>
+        <v>0.0236506459815303</v>
       </c>
       <c r="E122" t="n">
-        <v>0.9522145706215023</v>
+        <v>0.8984443758623541</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -4869,20 +4677,20 @@
     <row r="123">
       <c r="A123" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_1.fasta</t>
+          <t>label_UMGS1535_110.fasta</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.2044606207503469</v>
+        <v>7.467990617480293e-05</v>
       </c>
       <c r="C123" t="n">
-        <v>0.7955343100827839</v>
+        <v>0.9979349245798902</v>
       </c>
       <c r="D123" t="n">
-        <v>5.06916686922684e-06</v>
+        <v>0.001990395513935009</v>
       </c>
       <c r="E123" t="n">
-        <v>0.7955343100827839</v>
+        <v>0.9979349245798902</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -4893,20 +4701,20 @@
     <row r="124">
       <c r="A124" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_102.fasta</t>
+          <t>label_UMGS1535_119.fasta</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.002947665801811171</v>
+        <v>0.0001259795332901935</v>
       </c>
       <c r="C124" t="n">
-        <v>0.9955146746267972</v>
+        <v>0.9984292241847479</v>
       </c>
       <c r="D124" t="n">
-        <v>0.001537659571391638</v>
+        <v>0.001444796281961998</v>
       </c>
       <c r="E124" t="n">
-        <v>0.9955146746267972</v>
+        <v>0.9984292241847479</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -4917,20 +4725,20 @@
     <row r="125">
       <c r="A125" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_107.fasta</t>
+          <t>label_UMGS1535_124.fasta</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.002430116202549523</v>
+        <v>0.001144043684138073</v>
       </c>
       <c r="C125" t="n">
-        <v>0.9975543013541771</v>
+        <v>0.9294931354313345</v>
       </c>
       <c r="D125" t="n">
-        <v>1.558244327333429e-05</v>
+        <v>0.06936282088452742</v>
       </c>
       <c r="E125" t="n">
-        <v>0.9975543013541771</v>
+        <v>0.9294931354313345</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -4941,20 +4749,20 @@
     <row r="126">
       <c r="A126" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_109.fasta</t>
+          <t>label_UMGS1535_143.fasta</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.009028958370770159</v>
+        <v>0.002438535862768324</v>
       </c>
       <c r="C126" t="n">
-        <v>0.9897826041942108</v>
+        <v>0.9949324549600198</v>
       </c>
       <c r="D126" t="n">
-        <v>0.001188437435018976</v>
+        <v>0.002629009177211819</v>
       </c>
       <c r="E126" t="n">
-        <v>0.9897826041942108</v>
+        <v>0.9949324549600198</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -4965,20 +4773,20 @@
     <row r="127">
       <c r="A127" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_116.fasta</t>
+          <t>label_UMGS1535_16.fasta</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.009188640551828412</v>
+        <v>0.014824493496463</v>
       </c>
       <c r="C127" t="n">
-        <v>0.9719219323819515</v>
+        <v>0.9837414094064328</v>
       </c>
       <c r="D127" t="n">
-        <v>0.01888942706622004</v>
+        <v>0.001434097097104221</v>
       </c>
       <c r="E127" t="n">
-        <v>0.9719219323819515</v>
+        <v>0.9837414094064328</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -4989,20 +4797,20 @@
     <row r="128">
       <c r="A128" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_127.fasta</t>
+          <t>label_UMGS1535_29.fasta</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.001497565717676961</v>
+        <v>0.0007471499191560152</v>
       </c>
       <c r="C128" t="n">
-        <v>0.9984994949138802</v>
+        <v>0.9990549626058094</v>
       </c>
       <c r="D128" t="n">
-        <v>2.939368442845253e-06</v>
+        <v>0.0001978874750345692</v>
       </c>
       <c r="E128" t="n">
-        <v>0.9984994949138802</v>
+        <v>0.9990549626058094</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -5013,20 +4821,20 @@
     <row r="129">
       <c r="A129" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_131.fasta</t>
+          <t>label_UMGS1535_30.fasta</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.0004813216165948844</v>
+        <v>0.004575953099702693</v>
       </c>
       <c r="C129" t="n">
-        <v>0.9995186734904691</v>
+        <v>0.990959280814132</v>
       </c>
       <c r="D129" t="n">
-        <v>4.892935946936515e-09</v>
+        <v>0.004464766086165272</v>
       </c>
       <c r="E129" t="n">
-        <v>0.9995186734904691</v>
+        <v>0.990959280814132</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -5037,20 +4845,20 @@
     <row r="130">
       <c r="A130" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_134.fasta</t>
+          <t>label_UMGS1535_36.fasta</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.03273724422189595</v>
+        <v>0.01322065059845076</v>
       </c>
       <c r="C130" t="n">
-        <v>0.9054825088708442</v>
+        <v>0.9024295576364638</v>
       </c>
       <c r="D130" t="n">
-        <v>0.06178024690725985</v>
+        <v>0.08434979176508553</v>
       </c>
       <c r="E130" t="n">
-        <v>0.9054825088708442</v>
+        <v>0.9024295576364638</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -5061,20 +4869,20 @@
     <row r="131">
       <c r="A131" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_138.fasta</t>
+          <t>label_UMGS1535_4.fasta</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.001288482301189096</v>
+        <v>0.09789713687471906</v>
       </c>
       <c r="C131" t="n">
-        <v>0.9984841107791989</v>
+        <v>0.9016408685846451</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0002274069196120072</v>
+        <v>0.0004619945406359169</v>
       </c>
       <c r="E131" t="n">
-        <v>0.9984841107791989</v>
+        <v>0.9016408685846451</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -5085,20 +4893,20 @@
     <row r="132">
       <c r="A132" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_139.fasta</t>
+          <t>label_UMGS1535_41.fasta</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.05932982452022303</v>
+        <v>0.009866295974894076</v>
       </c>
       <c r="C132" t="n">
-        <v>0.9361631742390276</v>
+        <v>0.9899228796573418</v>
       </c>
       <c r="D132" t="n">
-        <v>0.004507001240749296</v>
+        <v>0.0002108243677639974</v>
       </c>
       <c r="E132" t="n">
-        <v>0.9361631742390276</v>
+        <v>0.9899228796573418</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -5109,20 +4917,20 @@
     <row r="133">
       <c r="A133" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_15.fasta</t>
+          <t>label_UMGS1535_43.fasta</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.003326466052902439</v>
+        <v>0.02535019703916125</v>
       </c>
       <c r="C133" t="n">
-        <v>0.9966733788229662</v>
+        <v>0.9665029187558867</v>
       </c>
       <c r="D133" t="n">
-        <v>1.551241314683134e-07</v>
+        <v>0.008146884204952133</v>
       </c>
       <c r="E133" t="n">
-        <v>0.9966733788229662</v>
+        <v>0.9665029187558867</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -5133,44 +4941,44 @@
     <row r="134">
       <c r="A134" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_18.fasta</t>
+          <t>label_UMGS1535_44.fasta</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.08002035193782617</v>
+        <v>0.005308295984953132</v>
       </c>
       <c r="C134" t="n">
-        <v>0.4509844131157536</v>
+        <v>0.9931487029478727</v>
       </c>
       <c r="D134" t="n">
-        <v>0.4689952349464204</v>
+        <v>0.001543001067174148</v>
       </c>
       <c r="E134" t="n">
-        <v>0.4689952349464204</v>
+        <v>0.9931487029478727</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>s__QALS01 sp900555925</t>
+          <t>s__QALS01 sp900552625</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_31.fasta</t>
+          <t>label_UMGS1535_47.fasta</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.003368032992513568</v>
+        <v>0.00352247640284692</v>
       </c>
       <c r="C135" t="n">
-        <v>0.9965495834799281</v>
+        <v>0.9931132396769574</v>
       </c>
       <c r="D135" t="n">
-        <v>8.238352755839599e-05</v>
+        <v>0.003364283920195807</v>
       </c>
       <c r="E135" t="n">
-        <v>0.9965495834799281</v>
+        <v>0.9931132396769574</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -5181,20 +4989,20 @@
     <row r="136">
       <c r="A136" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_35.fasta</t>
+          <t>label_UMGS1535_50.fasta</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.00278884009428797</v>
+        <v>0.003236993879039018</v>
       </c>
       <c r="C136" t="n">
-        <v>0.9972052042479278</v>
+        <v>0.996217217066512</v>
       </c>
       <c r="D136" t="n">
-        <v>5.955657784307555e-06</v>
+        <v>0.0005457890544490759</v>
       </c>
       <c r="E136" t="n">
-        <v>0.9972052042479278</v>
+        <v>0.996217217066512</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -5205,20 +5013,20 @@
     <row r="137">
       <c r="A137" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_38.fasta</t>
+          <t>label_UMGS1535_53.fasta</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.01227406285301394</v>
+        <v>0.01704330525341774</v>
       </c>
       <c r="C137" t="n">
-        <v>0.9573836398491271</v>
+        <v>0.9448850792288533</v>
       </c>
       <c r="D137" t="n">
-        <v>0.03034229729785895</v>
+        <v>0.03807161551772879</v>
       </c>
       <c r="E137" t="n">
-        <v>0.9573836398491271</v>
+        <v>0.9448850792288533</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -5229,20 +5037,20 @@
     <row r="138">
       <c r="A138" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_42.fasta</t>
+          <t>label_UMGS1535_57.fasta</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.002112154385865853</v>
+        <v>0.003091684716538166</v>
       </c>
       <c r="C138" t="n">
-        <v>0.9978877747552392</v>
+        <v>0.9904625895211734</v>
       </c>
       <c r="D138" t="n">
-        <v>7.085889486318602e-08</v>
+        <v>0.006445725762288453</v>
       </c>
       <c r="E138" t="n">
-        <v>0.9978877747552392</v>
+        <v>0.9904625895211734</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -5253,20 +5061,20 @@
     <row r="139">
       <c r="A139" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_51.fasta</t>
+          <t>label_UMGS1535_71.fasta</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.0025843811315596</v>
+        <v>0.00152446153991377</v>
       </c>
       <c r="C139" t="n">
-        <v>0.9974153736564326</v>
+        <v>0.9984559198200098</v>
       </c>
       <c r="D139" t="n">
-        <v>2.452120079037783e-07</v>
+        <v>1.961864007649085e-05</v>
       </c>
       <c r="E139" t="n">
-        <v>0.9974153736564326</v>
+        <v>0.9984559198200098</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -5277,20 +5085,20 @@
     <row r="140">
       <c r="A140" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_52.fasta</t>
+          <t>label_UMGS1535_78.fasta</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.008754784933938591</v>
+        <v>0.005856565057700805</v>
       </c>
       <c r="C140" t="n">
-        <v>0.9888449351971293</v>
+        <v>0.9914519622301668</v>
       </c>
       <c r="D140" t="n">
-        <v>0.002400279868931987</v>
+        <v>0.002691472712132408</v>
       </c>
       <c r="E140" t="n">
-        <v>0.9888449351971293</v>
+        <v>0.9914519622301668</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -5301,20 +5109,20 @@
     <row r="141">
       <c r="A141" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_55.fasta</t>
+          <t>label_UMGS1535_86.fasta</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.005384751266882939</v>
+        <v>1.028585695331536e-05</v>
       </c>
       <c r="C141" t="n">
-        <v>0.9924514018945955</v>
+        <v>0.9994628570625161</v>
       </c>
       <c r="D141" t="n">
-        <v>0.002163846838521537</v>
+        <v>0.0005268570805305177</v>
       </c>
       <c r="E141" t="n">
-        <v>0.9924514018945955</v>
+        <v>0.9994628570625161</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -5325,20 +5133,20 @@
     <row r="142">
       <c r="A142" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_67.fasta</t>
+          <t>label_UMGS1535_95.fasta</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.004383226598814603</v>
+        <v>0.003243474861018982</v>
       </c>
       <c r="C142" t="n">
-        <v>0.9922356017004584</v>
+        <v>0.9967334904218627</v>
       </c>
       <c r="D142" t="n">
-        <v>0.003381171700727</v>
+        <v>2.303471711834474e-05</v>
       </c>
       <c r="E142" t="n">
-        <v>0.9922356017004584</v>
+        <v>0.9967334904218627</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -5349,718 +5157,22 @@
     <row r="143">
       <c r="A143" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1535_79.fasta</t>
+          <t>label_UMGS1535_99.fasta</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.005729210356226927</v>
+        <v>0.007376472683462814</v>
       </c>
       <c r="C143" t="n">
-        <v>0.9936099701983999</v>
+        <v>0.9906624129198144</v>
       </c>
       <c r="D143" t="n">
-        <v>0.0006608194453731739</v>
+        <v>0.001961114396722775</v>
       </c>
       <c r="E143" t="n">
-        <v>0.9936099701983999</v>
+        <v>0.9906624129198144</v>
       </c>
       <c r="F143" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1535_8.fasta</t>
-        </is>
-      </c>
-      <c r="B144" t="n">
-        <v>0.002094364844158978</v>
-      </c>
-      <c r="C144" t="n">
-        <v>0.9979053669059434</v>
-      </c>
-      <c r="D144" t="n">
-        <v>2.682498976570782e-07</v>
-      </c>
-      <c r="E144" t="n">
-        <v>0.9979053669059434</v>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1535_84.fasta</t>
-        </is>
-      </c>
-      <c r="B145" t="n">
-        <v>0.0104970286176327</v>
-      </c>
-      <c r="C145" t="n">
-        <v>0.9801221727902628</v>
-      </c>
-      <c r="D145" t="n">
-        <v>0.009380798592104497</v>
-      </c>
-      <c r="E145" t="n">
-        <v>0.9801221727902628</v>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1535_87.fasta</t>
-        </is>
-      </c>
-      <c r="B146" t="n">
-        <v>0.002328388792512256</v>
-      </c>
-      <c r="C146" t="n">
-        <v>0.997671598693895</v>
-      </c>
-      <c r="D146" t="n">
-        <v>1.251359260131496e-08</v>
-      </c>
-      <c r="E146" t="n">
-        <v>0.997671598693895</v>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1535_94.fasta</t>
-        </is>
-      </c>
-      <c r="B147" t="n">
-        <v>0.004519160980435272</v>
-      </c>
-      <c r="C147" t="n">
-        <v>0.9951449336103326</v>
-      </c>
-      <c r="D147" t="n">
-        <v>0.0003359054092320795</v>
-      </c>
-      <c r="E147" t="n">
-        <v>0.9951449336103326</v>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1535_0.fasta</t>
-        </is>
-      </c>
-      <c r="B148" t="n">
-        <v>0.002402474201771865</v>
-      </c>
-      <c r="C148" t="n">
-        <v>0.9922195250351137</v>
-      </c>
-      <c r="D148" t="n">
-        <v>0.005378000763114498</v>
-      </c>
-      <c r="E148" t="n">
-        <v>0.9922195250351137</v>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1535_100.fasta</t>
-        </is>
-      </c>
-      <c r="B149" t="n">
-        <v>0.002475478686384112</v>
-      </c>
-      <c r="C149" t="n">
-        <v>0.9968008176779883</v>
-      </c>
-      <c r="D149" t="n">
-        <v>0.0007237036356275882</v>
-      </c>
-      <c r="E149" t="n">
-        <v>0.9968008176779883</v>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1535_105.fasta</t>
-        </is>
-      </c>
-      <c r="B150" t="n">
-        <v>0.005872359282298472</v>
-      </c>
-      <c r="C150" t="n">
-        <v>0.8472123767754044</v>
-      </c>
-      <c r="D150" t="n">
-        <v>0.1469152639422971</v>
-      </c>
-      <c r="E150" t="n">
-        <v>0.8472123767754044</v>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1535_11.fasta</t>
-        </is>
-      </c>
-      <c r="B151" t="n">
-        <v>0.07790497815611545</v>
-      </c>
-      <c r="C151" t="n">
-        <v>0.8984443758623541</v>
-      </c>
-      <c r="D151" t="n">
-        <v>0.0236506459815303</v>
-      </c>
-      <c r="E151" t="n">
-        <v>0.8984443758623541</v>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1535_110.fasta</t>
-        </is>
-      </c>
-      <c r="B152" t="n">
-        <v>7.467990617480293e-05</v>
-      </c>
-      <c r="C152" t="n">
-        <v>0.9979349245798902</v>
-      </c>
-      <c r="D152" t="n">
-        <v>0.001990395513935009</v>
-      </c>
-      <c r="E152" t="n">
-        <v>0.9979349245798902</v>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1535_119.fasta</t>
-        </is>
-      </c>
-      <c r="B153" t="n">
-        <v>0.0001259795332901935</v>
-      </c>
-      <c r="C153" t="n">
-        <v>0.9984292241847479</v>
-      </c>
-      <c r="D153" t="n">
-        <v>0.001444796281961998</v>
-      </c>
-      <c r="E153" t="n">
-        <v>0.9984292241847479</v>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1535_124.fasta</t>
-        </is>
-      </c>
-      <c r="B154" t="n">
-        <v>0.001144043684138073</v>
-      </c>
-      <c r="C154" t="n">
-        <v>0.9294931354313345</v>
-      </c>
-      <c r="D154" t="n">
-        <v>0.06936282088452742</v>
-      </c>
-      <c r="E154" t="n">
-        <v>0.9294931354313345</v>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1535_143.fasta</t>
-        </is>
-      </c>
-      <c r="B155" t="n">
-        <v>0.002438535862768324</v>
-      </c>
-      <c r="C155" t="n">
-        <v>0.9949324549600198</v>
-      </c>
-      <c r="D155" t="n">
-        <v>0.002629009177211819</v>
-      </c>
-      <c r="E155" t="n">
-        <v>0.9949324549600198</v>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1535_16.fasta</t>
-        </is>
-      </c>
-      <c r="B156" t="n">
-        <v>0.014824493496463</v>
-      </c>
-      <c r="C156" t="n">
-        <v>0.9837414094064328</v>
-      </c>
-      <c r="D156" t="n">
-        <v>0.001434097097104221</v>
-      </c>
-      <c r="E156" t="n">
-        <v>0.9837414094064328</v>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1535_29.fasta</t>
-        </is>
-      </c>
-      <c r="B157" t="n">
-        <v>0.0007471499191560152</v>
-      </c>
-      <c r="C157" t="n">
-        <v>0.9990549626058094</v>
-      </c>
-      <c r="D157" t="n">
-        <v>0.0001978874750345692</v>
-      </c>
-      <c r="E157" t="n">
-        <v>0.9990549626058094</v>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1535_30.fasta</t>
-        </is>
-      </c>
-      <c r="B158" t="n">
-        <v>0.004575953099702693</v>
-      </c>
-      <c r="C158" t="n">
-        <v>0.990959280814132</v>
-      </c>
-      <c r="D158" t="n">
-        <v>0.004464766086165272</v>
-      </c>
-      <c r="E158" t="n">
-        <v>0.990959280814132</v>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1535_36.fasta</t>
-        </is>
-      </c>
-      <c r="B159" t="n">
-        <v>0.01322065059845076</v>
-      </c>
-      <c r="C159" t="n">
-        <v>0.9024295576364638</v>
-      </c>
-      <c r="D159" t="n">
-        <v>0.08434979176508553</v>
-      </c>
-      <c r="E159" t="n">
-        <v>0.9024295576364638</v>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1535_4.fasta</t>
-        </is>
-      </c>
-      <c r="B160" t="n">
-        <v>0.09789713687471906</v>
-      </c>
-      <c r="C160" t="n">
-        <v>0.9016408685846451</v>
-      </c>
-      <c r="D160" t="n">
-        <v>0.0004619945406359169</v>
-      </c>
-      <c r="E160" t="n">
-        <v>0.9016408685846451</v>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1535_41.fasta</t>
-        </is>
-      </c>
-      <c r="B161" t="n">
-        <v>0.009866295974894076</v>
-      </c>
-      <c r="C161" t="n">
-        <v>0.9899228796573418</v>
-      </c>
-      <c r="D161" t="n">
-        <v>0.0002108243677639974</v>
-      </c>
-      <c r="E161" t="n">
-        <v>0.9899228796573418</v>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1535_43.fasta</t>
-        </is>
-      </c>
-      <c r="B162" t="n">
-        <v>0.02535019703916125</v>
-      </c>
-      <c r="C162" t="n">
-        <v>0.9665029187558867</v>
-      </c>
-      <c r="D162" t="n">
-        <v>0.008146884204952133</v>
-      </c>
-      <c r="E162" t="n">
-        <v>0.9665029187558867</v>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1535_44.fasta</t>
-        </is>
-      </c>
-      <c r="B163" t="n">
-        <v>0.005308295984953132</v>
-      </c>
-      <c r="C163" t="n">
-        <v>0.9931487029478727</v>
-      </c>
-      <c r="D163" t="n">
-        <v>0.001543001067174148</v>
-      </c>
-      <c r="E163" t="n">
-        <v>0.9931487029478727</v>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1535_47.fasta</t>
-        </is>
-      </c>
-      <c r="B164" t="n">
-        <v>0.00352247640284692</v>
-      </c>
-      <c r="C164" t="n">
-        <v>0.9931132396769574</v>
-      </c>
-      <c r="D164" t="n">
-        <v>0.003364283920195807</v>
-      </c>
-      <c r="E164" t="n">
-        <v>0.9931132396769574</v>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1535_50.fasta</t>
-        </is>
-      </c>
-      <c r="B165" t="n">
-        <v>0.003236993879039018</v>
-      </c>
-      <c r="C165" t="n">
-        <v>0.996217217066512</v>
-      </c>
-      <c r="D165" t="n">
-        <v>0.0005457890544490759</v>
-      </c>
-      <c r="E165" t="n">
-        <v>0.996217217066512</v>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1535_53.fasta</t>
-        </is>
-      </c>
-      <c r="B166" t="n">
-        <v>0.01704330525341774</v>
-      </c>
-      <c r="C166" t="n">
-        <v>0.9448850792288533</v>
-      </c>
-      <c r="D166" t="n">
-        <v>0.03807161551772879</v>
-      </c>
-      <c r="E166" t="n">
-        <v>0.9448850792288533</v>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1535_57.fasta</t>
-        </is>
-      </c>
-      <c r="B167" t="n">
-        <v>0.003091684716538166</v>
-      </c>
-      <c r="C167" t="n">
-        <v>0.9904625895211734</v>
-      </c>
-      <c r="D167" t="n">
-        <v>0.006445725762288453</v>
-      </c>
-      <c r="E167" t="n">
-        <v>0.9904625895211734</v>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1535_71.fasta</t>
-        </is>
-      </c>
-      <c r="B168" t="n">
-        <v>0.00152446153991377</v>
-      </c>
-      <c r="C168" t="n">
-        <v>0.9984559198200098</v>
-      </c>
-      <c r="D168" t="n">
-        <v>1.961864007649085e-05</v>
-      </c>
-      <c r="E168" t="n">
-        <v>0.9984559198200098</v>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1535_78.fasta</t>
-        </is>
-      </c>
-      <c r="B169" t="n">
-        <v>0.005856565057700805</v>
-      </c>
-      <c r="C169" t="n">
-        <v>0.9914519622301668</v>
-      </c>
-      <c r="D169" t="n">
-        <v>0.002691472712132408</v>
-      </c>
-      <c r="E169" t="n">
-        <v>0.9914519622301668</v>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1535_86.fasta</t>
-        </is>
-      </c>
-      <c r="B170" t="n">
-        <v>1.028585695331536e-05</v>
-      </c>
-      <c r="C170" t="n">
-        <v>0.9994628570625161</v>
-      </c>
-      <c r="D170" t="n">
-        <v>0.0005268570805305177</v>
-      </c>
-      <c r="E170" t="n">
-        <v>0.9994628570625161</v>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1535_95.fasta</t>
-        </is>
-      </c>
-      <c r="B171" t="n">
-        <v>0.003243474861018982</v>
-      </c>
-      <c r="C171" t="n">
-        <v>0.9967334904218627</v>
-      </c>
-      <c r="D171" t="n">
-        <v>2.303471711834474e-05</v>
-      </c>
-      <c r="E171" t="n">
-        <v>0.9967334904218627</v>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1535_99.fasta</t>
-        </is>
-      </c>
-      <c r="B172" t="n">
-        <v>0.007376472683462814</v>
-      </c>
-      <c r="C172" t="n">
-        <v>0.9906624129198144</v>
-      </c>
-      <c r="D172" t="n">
-        <v>0.001961114396722775</v>
-      </c>
-      <c r="E172" t="n">
-        <v>0.9906624129198144</v>
-      </c>
-      <c r="F172" t="inlineStr">
         <is>
           <t>s__QALS01 sp900552625</t>
         </is>
@@ -6077,7 +5189,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6528,20 +5640,20 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_0.fasta</t>
+          <t>label_UMGS1884_16.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02784483570077221</v>
+        <v>0.009984113108164487</v>
       </c>
       <c r="C19" t="n">
-        <v>1.225788051850113e-10</v>
+        <v>4.958792451275303e-05</v>
       </c>
       <c r="D19" t="n">
-        <v>0.972155164176649</v>
+        <v>0.9899662989673228</v>
       </c>
       <c r="E19" t="n">
-        <v>0.972155164176649</v>
+        <v>0.9899662989673228</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -6552,20 +5664,20 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_10.fasta</t>
+          <t>label_UMGS1884_18.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0128706457387887</v>
+        <v>0.03360777709055374</v>
       </c>
       <c r="C20" t="n">
-        <v>1.577450471846173e-09</v>
+        <v>0.00821817207191574</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9871293526837608</v>
+        <v>0.9581740508375305</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9871293526837608</v>
+        <v>0.9581740508375305</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -6576,20 +5688,20 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_12.fasta</t>
+          <t>label_UMGS1884_20.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01938420839517743</v>
+        <v>0.03332062313752686</v>
       </c>
       <c r="C21" t="n">
-        <v>5.710320792982127e-10</v>
+        <v>2.85789773984942e-05</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9806157910337905</v>
+        <v>0.9666507978850747</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9806157910337905</v>
+        <v>0.9666507978850747</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -6600,20 +5712,20 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_13.fasta</t>
+          <t>label_UMGS1884_24.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01688975576418739</v>
+        <v>0.1264843268458565</v>
       </c>
       <c r="C22" t="n">
-        <v>7.951807049736272e-07</v>
+        <v>1.371629094379745e-05</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9831094490551076</v>
+        <v>0.8735019568631996</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9831094490551076</v>
+        <v>0.8735019568631996</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -6624,20 +5736,20 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_25.fasta</t>
+          <t>label_UMGS1884_37.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0172561769676984</v>
+        <v>0.05194399232817093</v>
       </c>
       <c r="C23" t="n">
-        <v>1.851140206189337e-10</v>
+        <v>0.02265979616332111</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9827438228471876</v>
+        <v>0.925396211508508</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9827438228471876</v>
+        <v>0.925396211508508</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -6648,20 +5760,20 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_27.fasta</t>
+          <t>label_UMGS1884_38.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.005235326114309964</v>
+        <v>0.004620773426952556</v>
       </c>
       <c r="C24" t="n">
-        <v>8.126183441996605e-08</v>
+        <v>0.0009120981992694555</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9947645926238557</v>
+        <v>0.994467128373778</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9947645926238557</v>
+        <v>0.994467128373778</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -6672,20 +5784,20 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_28.fasta</t>
+          <t>label_UMGS1884_39.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.04071428567888613</v>
+        <v>0.04810166074601308</v>
       </c>
       <c r="C25" t="n">
-        <v>2.415471408292847e-07</v>
+        <v>0.04897562011404512</v>
       </c>
       <c r="D25" t="n">
-        <v>0.959285472773973</v>
+        <v>0.9029227191399419</v>
       </c>
       <c r="E25" t="n">
-        <v>0.959285472773973</v>
+        <v>0.9029227191399419</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -6696,20 +5808,20 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_29.fasta</t>
+          <t>label_UMGS1884_42.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.02724940541949929</v>
+        <v>0.049769389627956</v>
       </c>
       <c r="C26" t="n">
-        <v>1.654433091564383e-08</v>
+        <v>0.005116880487531077</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9727505780361698</v>
+        <v>0.9451137298845128</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9727505780361698</v>
+        <v>0.9451137298845128</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -6720,20 +5832,20 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_30.fasta</t>
+          <t>label_UMGS1884_48.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.02332986470273123</v>
+        <v>0.02449543816950878</v>
       </c>
       <c r="C27" t="n">
-        <v>7.956953186797292e-08</v>
+        <v>0.0007005040332663161</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9766700557277369</v>
+        <v>0.9748040577972249</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9766700557277369</v>
+        <v>0.9748040577972249</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -6744,20 +5856,20 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_33.fasta</t>
+          <t>label_UMGS1884_54.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1246010878396154</v>
+        <v>0.04332883654271334</v>
       </c>
       <c r="C28" t="n">
-        <v>0.002032778750270116</v>
+        <v>0.03251382623843203</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8733661334101145</v>
+        <v>0.9241573372188547</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8733661334101145</v>
+        <v>0.9241573372188547</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -6768,20 +5880,20 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_34.fasta</t>
+          <t>label_UMGS1884_55.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.03380031419795657</v>
+        <v>0.08611852544837184</v>
       </c>
       <c r="C29" t="n">
-        <v>0.006851250599567707</v>
+        <v>0.0001056913994410006</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9593484352024756</v>
+        <v>0.9137757831521871</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9593484352024756</v>
+        <v>0.9137757831521871</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -6792,20 +5904,20 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_41.fasta</t>
+          <t>label_UMGS1884_59.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01927457067351126</v>
+        <v>0.1178163052546331</v>
       </c>
       <c r="C30" t="n">
-        <v>2.611466382436458e-09</v>
+        <v>0.01117270932652512</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9807254267150224</v>
+        <v>0.8710109854188417</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9807254267150224</v>
+        <v>0.8710109854188417</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -6816,20 +5928,20 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_6.fasta</t>
+          <t>label_UMGS1884_61.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.001734640733958902</v>
+        <v>0.2088037026387919</v>
       </c>
       <c r="C31" t="n">
-        <v>1.497922474223706e-09</v>
+        <v>0.06461986439262647</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9982653577681185</v>
+        <v>0.7265764329685817</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9982653577681185</v>
+        <v>0.7265764329685817</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -6840,44 +5952,44 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_60.fasta</t>
+          <t>label_UMGS1884_72.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.06776780565439358</v>
+        <v>0.1030486329156707</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5730586217103004</v>
+        <v>0.441927857811818</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3591735726353059</v>
+        <v>0.4550235092725112</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5730586217103004</v>
+        <v>0.4550235092725112</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>s__QALS01 sp900552625</t>
+          <t>s__QALS01 sp900555925</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_67.fasta</t>
+          <t>label_UMGS1884_73.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1436695401489727</v>
+        <v>0.01984158677000139</v>
       </c>
       <c r="C33" t="n">
-        <v>2.865376312917355e-07</v>
+        <v>0.06727037925836846</v>
       </c>
       <c r="D33" t="n">
-        <v>0.856330173313396</v>
+        <v>0.9128880339716301</v>
       </c>
       <c r="E33" t="n">
-        <v>0.856330173313396</v>
+        <v>0.9128880339716301</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -6888,20 +6000,20 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_70.fasta</t>
+          <t>label_UMGS1884_9.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1115459798140909</v>
+        <v>0.007971999990023411</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002268789941762232</v>
+        <v>0.00105120254894809</v>
       </c>
       <c r="D34" t="n">
-        <v>0.8861852302441469</v>
+        <v>0.9909767974610285</v>
       </c>
       <c r="E34" t="n">
-        <v>0.8861852302441469</v>
+        <v>0.9909767974610285</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -6912,20 +6024,20 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_71.fasta</t>
+          <t>label_UMGS1884_1.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.2160080354641748</v>
+        <v>0.005671659383293841</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01223985065909665</v>
+        <v>0.001173674455078159</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7717521138767286</v>
+        <v>0.993154666161628</v>
       </c>
       <c r="E35" t="n">
-        <v>0.7717521138767286</v>
+        <v>0.993154666161628</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -6936,20 +6048,20 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_74.fasta</t>
+          <t>label_UMGS1884_17.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1724841081204284</v>
+        <v>0.004191843409221542</v>
       </c>
       <c r="C36" t="n">
-        <v>0.01436956607848186</v>
+        <v>0.001042616182227697</v>
       </c>
       <c r="D36" t="n">
-        <v>0.8131463258010898</v>
+        <v>0.9947655404085507</v>
       </c>
       <c r="E36" t="n">
-        <v>0.8131463258010898</v>
+        <v>0.9947655404085507</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -6960,20 +6072,20 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_16.fasta</t>
+          <t>label_UMGS1884_22.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.009984113108164487</v>
+        <v>0.02270233874407326</v>
       </c>
       <c r="C37" t="n">
-        <v>4.958792451275303e-05</v>
+        <v>1.297190530897474e-05</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9899662989673228</v>
+        <v>0.9772846893506179</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9899662989673228</v>
+        <v>0.9772846893506179</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -6984,20 +6096,20 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_18.fasta</t>
+          <t>label_UMGS1884_26.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.03360777709055374</v>
+        <v>0.002712202027618116</v>
       </c>
       <c r="C38" t="n">
-        <v>0.00821817207191574</v>
+        <v>7.798511467019313e-06</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9581740508375305</v>
+        <v>0.9972799994609148</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9581740508375305</v>
+        <v>0.9972799994609148</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -7008,20 +6120,20 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_20.fasta</t>
+          <t>label_UMGS1884_31.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.03332062313752686</v>
+        <v>0.00865442784241011</v>
       </c>
       <c r="C39" t="n">
-        <v>2.85789773984942e-05</v>
+        <v>2.431870761213366e-06</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9666507978850747</v>
+        <v>0.9913431402868288</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9666507978850747</v>
+        <v>0.9913431402868288</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -7032,20 +6144,20 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_24.fasta</t>
+          <t>label_UMGS1884_45.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.1264843268458565</v>
+        <v>0.03113176443483147</v>
       </c>
       <c r="C40" t="n">
-        <v>1.371629094379745e-05</v>
+        <v>0.006460719189203898</v>
       </c>
       <c r="D40" t="n">
-        <v>0.8735019568631996</v>
+        <v>0.9624075163759647</v>
       </c>
       <c r="E40" t="n">
-        <v>0.8735019568631996</v>
+        <v>0.9624075163759647</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -7056,20 +6168,20 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_37.fasta</t>
+          <t>label_UMGS1884_50.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.05194399232817093</v>
+        <v>0.01979664352504382</v>
       </c>
       <c r="C41" t="n">
-        <v>0.02265979616332111</v>
+        <v>0.003331194536290087</v>
       </c>
       <c r="D41" t="n">
-        <v>0.925396211508508</v>
+        <v>0.9768721619386661</v>
       </c>
       <c r="E41" t="n">
-        <v>0.925396211508508</v>
+        <v>0.9768721619386661</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -7080,20 +6192,20 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_38.fasta</t>
+          <t>label_UMGS1884_51.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.004620773426952556</v>
+        <v>0.0283122313113799</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0009120981992694555</v>
+        <v>0.001154434569734526</v>
       </c>
       <c r="D42" t="n">
-        <v>0.994467128373778</v>
+        <v>0.9705333341188856</v>
       </c>
       <c r="E42" t="n">
-        <v>0.994467128373778</v>
+        <v>0.9705333341188856</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -7104,20 +6216,20 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_39.fasta</t>
+          <t>label_UMGS1884_52.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.04810166074601308</v>
+        <v>0.1003346000399316</v>
       </c>
       <c r="C43" t="n">
-        <v>0.04897562011404512</v>
+        <v>0.008783622458121244</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9029227191399419</v>
+        <v>0.8908817775019472</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9029227191399419</v>
+        <v>0.8908817775019472</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -7128,20 +6240,20 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_42.fasta</t>
+          <t>label_UMGS1884_57.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.049769389627956</v>
+        <v>0.02268369980430705</v>
       </c>
       <c r="C44" t="n">
-        <v>0.005116880487531077</v>
+        <v>0.003746344962371846</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9451137298845128</v>
+        <v>0.9735699552333211</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9451137298845128</v>
+        <v>0.9735699552333211</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -7152,20 +6264,20 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_48.fasta</t>
+          <t>label_UMGS1884_58.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.02449543816950878</v>
+        <v>0.01442278017461964</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0007005040332663161</v>
+        <v>1.446033865075227e-05</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9748040577972249</v>
+        <v>0.9855627594867296</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9748040577972249</v>
+        <v>0.9855627594867296</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -7176,44 +6288,44 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_54.fasta</t>
+          <t>label_UMGS1884_63.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.04332883654271334</v>
+        <v>0.036500414126996</v>
       </c>
       <c r="C46" t="n">
-        <v>0.03251382623843203</v>
+        <v>0.6730457162973138</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9241573372188547</v>
+        <v>0.2904538695756903</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9241573372188547</v>
+        <v>0.6730457162973138</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>s__QALS01 sp900555925</t>
+          <t>s__QALS01 sp900552625</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_55.fasta</t>
+          <t>label_UMGS1884_7.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.08611852544837184</v>
+        <v>0.0001613008932899375</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0001056913994410006</v>
+        <v>0.000130638600734824</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9137757831521871</v>
+        <v>0.9997080605059752</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9137757831521871</v>
+        <v>0.9997080605059752</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -7224,20 +6336,20 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_59.fasta</t>
+          <t>label_UMGS1884_77.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.1178163052546331</v>
+        <v>0.1415299655162745</v>
       </c>
       <c r="C48" t="n">
-        <v>0.01117270932652512</v>
+        <v>0.0003502478062650622</v>
       </c>
       <c r="D48" t="n">
-        <v>0.8710109854188417</v>
+        <v>0.8581197866774605</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8710109854188417</v>
+        <v>0.8581197866774605</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -7248,44 +6360,44 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_61.fasta</t>
+          <t>label_UMGS1884_78.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.2088037026387919</v>
+        <v>0.124352639669368</v>
       </c>
       <c r="C49" t="n">
-        <v>0.06461986439262647</v>
+        <v>0.6363591625513368</v>
       </c>
       <c r="D49" t="n">
-        <v>0.7265764329685817</v>
+        <v>0.2392881977792952</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7265764329685817</v>
+        <v>0.6363591625513368</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>s__QALS01 sp900555925</t>
+          <t>s__QALS01 sp900552625</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_72.fasta</t>
+          <t>label_UMGS1884_80.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.1030486329156707</v>
+        <v>0.02521427398882425</v>
       </c>
       <c r="C50" t="n">
-        <v>0.441927857811818</v>
+        <v>2.274603174716994e-05</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4550235092725112</v>
+        <v>0.9747629799794286</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4550235092725112</v>
+        <v>0.9747629799794286</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -7296,20 +6408,20 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_73.fasta</t>
+          <t>label_UMGS1884_11.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.01984158677000139</v>
+        <v>0.009479085273260936</v>
       </c>
       <c r="C51" t="n">
-        <v>0.06727037925836846</v>
+        <v>5.850365675537862e-07</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9128880339716301</v>
+        <v>0.9905203296901717</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9128880339716301</v>
+        <v>0.9905203296901717</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -7320,20 +6432,20 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_9.fasta</t>
+          <t>label_UMGS1884_15.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.007971999990023411</v>
+        <v>0.001838660832762566</v>
       </c>
       <c r="C52" t="n">
-        <v>0.00105120254894809</v>
+        <v>3.522867959693143e-06</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9909767974610285</v>
+        <v>0.9981578162992778</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9909767974610285</v>
+        <v>0.9981578162992778</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -7344,20 +6456,20 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_1.fasta</t>
+          <t>label_UMGS1884_2.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.005671659383293841</v>
+        <v>0.0161941446144015</v>
       </c>
       <c r="C53" t="n">
-        <v>0.001173674455078159</v>
+        <v>2.290465696845792e-08</v>
       </c>
       <c r="D53" t="n">
-        <v>0.993154666161628</v>
+        <v>0.9838058324809417</v>
       </c>
       <c r="E53" t="n">
-        <v>0.993154666161628</v>
+        <v>0.9838058324809417</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -7368,20 +6480,20 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_17.fasta</t>
+          <t>label_UMGS1884_23.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.004191843409221542</v>
+        <v>0.01985992260677893</v>
       </c>
       <c r="C54" t="n">
-        <v>0.001042616182227697</v>
+        <v>3.407251839333899e-05</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9947655404085507</v>
+        <v>0.9801060048748277</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9947655404085507</v>
+        <v>0.9801060048748277</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -7392,44 +6504,44 @@
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_22.fasta</t>
+          <t>label_UMGS1884_3.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.02270233874407326</v>
+        <v>0.9392028295168938</v>
       </c>
       <c r="C55" t="n">
-        <v>1.297190530897474e-05</v>
+        <v>0.0002872317996805588</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9772846893506179</v>
+        <v>0.06050993868342562</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9772846893506179</v>
+        <v>0.9392028295168938</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>s__QALS01 sp900555925</t>
+          <t>s__QALS01 sp003150575</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_26.fasta</t>
+          <t>label_UMGS1884_4.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.002712202027618116</v>
+        <v>0.003773150459184237</v>
       </c>
       <c r="C56" t="n">
-        <v>7.798511467019313e-06</v>
+        <v>1.823422316807551e-05</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9972799994609148</v>
+        <v>0.9962086153176477</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9972799994609148</v>
+        <v>0.9962086153176477</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -7440,20 +6552,20 @@
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_31.fasta</t>
+          <t>label_UMGS1884_43.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.00865442784241011</v>
+        <v>0.002032866038575397</v>
       </c>
       <c r="C57" t="n">
-        <v>2.431870761213366e-06</v>
+        <v>1.451025868861497e-05</v>
       </c>
       <c r="D57" t="n">
-        <v>0.9913431402868288</v>
+        <v>0.997952623702736</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9913431402868288</v>
+        <v>0.997952623702736</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -7464,20 +6576,20 @@
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_45.fasta</t>
+          <t>label_UMGS1884_44.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.03113176443483147</v>
+        <v>0.003015399937856289</v>
       </c>
       <c r="C58" t="n">
-        <v>0.006460719189203898</v>
+        <v>0.002545982213475509</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9624075163759647</v>
+        <v>0.9944386178486683</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9624075163759647</v>
+        <v>0.9944386178486683</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -7488,20 +6600,20 @@
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_50.fasta</t>
+          <t>label_UMGS1884_46.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01979664352504382</v>
+        <v>0.003849185202587754</v>
       </c>
       <c r="C59" t="n">
-        <v>0.003331194536290087</v>
+        <v>9.556719867134557e-05</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9768721619386661</v>
+        <v>0.996055247598741</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9768721619386661</v>
+        <v>0.996055247598741</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -7512,20 +6624,20 @@
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_51.fasta</t>
+          <t>label_UMGS1884_49.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.0283122313113799</v>
+        <v>0.001702147029490831</v>
       </c>
       <c r="C60" t="n">
-        <v>0.001154434569734526</v>
+        <v>0.0001144422663580103</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9705333341188856</v>
+        <v>0.9981834107041511</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9705333341188856</v>
+        <v>0.9981834107041511</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -7536,20 +6648,20 @@
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_52.fasta</t>
+          <t>label_UMGS1884_5.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1003346000399316</v>
+        <v>0.3687379221098259</v>
       </c>
       <c r="C61" t="n">
-        <v>0.008783622458121244</v>
+        <v>8.990047076478546e-06</v>
       </c>
       <c r="D61" t="n">
-        <v>0.8908817775019472</v>
+        <v>0.6312530878430977</v>
       </c>
       <c r="E61" t="n">
-        <v>0.8908817775019472</v>
+        <v>0.6312530878430977</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -7560,20 +6672,20 @@
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_57.fasta</t>
+          <t>label_UMGS1884_66.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.02268369980430705</v>
+        <v>0.003048328762687142</v>
       </c>
       <c r="C62" t="n">
-        <v>0.003746344962371846</v>
+        <v>0.0008564431337379901</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9735699552333211</v>
+        <v>0.9960952281035749</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9735699552333211</v>
+        <v>0.9960952281035749</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -7584,20 +6696,20 @@
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_58.fasta</t>
+          <t>label_UMGS1884_69.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.01442278017461964</v>
+        <v>0.04636330600831663</v>
       </c>
       <c r="C63" t="n">
-        <v>1.446033865075227e-05</v>
+        <v>0.0001887827973700029</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9855627594867296</v>
+        <v>0.9534479111943134</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9855627594867296</v>
+        <v>0.9534479111943134</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -7608,44 +6720,44 @@
     <row r="64">
       <c r="A64" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_63.fasta</t>
+          <t>label_UMGS1884_75.fasta</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.036500414126996</v>
+        <v>0.08005834571467617</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6730457162973138</v>
+        <v>0.04340920445007916</v>
       </c>
       <c r="D64" t="n">
-        <v>0.2904538695756903</v>
+        <v>0.8765324498352446</v>
       </c>
       <c r="E64" t="n">
-        <v>0.6730457162973138</v>
+        <v>0.8765324498352446</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>s__QALS01 sp900552625</t>
+          <t>s__QALS01 sp900555925</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_7.fasta</t>
+          <t>label_UMGS1884_79.fasta</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.0001613008932899375</v>
+        <v>0.2259856622483526</v>
       </c>
       <c r="C65" t="n">
-        <v>0.000130638600734824</v>
+        <v>0.1594244562608081</v>
       </c>
       <c r="D65" t="n">
-        <v>0.9997080605059752</v>
+        <v>0.6145898814908394</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9997080605059752</v>
+        <v>0.6145898814908394</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -7656,20 +6768,20 @@
     <row r="66">
       <c r="A66" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_77.fasta</t>
+          <t>label_UMGS1884_81.fasta</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.1415299655162745</v>
+        <v>0.02632441025630883</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0003502478062650622</v>
+        <v>0.002159871268224602</v>
       </c>
       <c r="D66" t="n">
-        <v>0.8581197866774605</v>
+        <v>0.9715157184754666</v>
       </c>
       <c r="E66" t="n">
-        <v>0.8581197866774605</v>
+        <v>0.9715157184754666</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -7680,44 +6792,44 @@
     <row r="67">
       <c r="A67" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_78.fasta</t>
+          <t>label_UMGS1884_14.fasta</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.124352639669368</v>
+        <v>0.008281761270897402</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6363591625513368</v>
+        <v>1.352379457117169e-07</v>
       </c>
       <c r="D67" t="n">
-        <v>0.2392881977792952</v>
+        <v>0.991718103491157</v>
       </c>
       <c r="E67" t="n">
-        <v>0.6363591625513368</v>
+        <v>0.991718103491157</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>s__QALS01 sp900552625</t>
+          <t>s__QALS01 sp900555925</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_80.fasta</t>
+          <t>label_UMGS1884_19.fasta</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.02521427398882425</v>
+        <v>0.001550259748679411</v>
       </c>
       <c r="C68" t="n">
-        <v>2.274603174716994e-05</v>
+        <v>1.371653850678083e-06</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9747629799794286</v>
+        <v>0.9984483685974699</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9747629799794286</v>
+        <v>0.9984483685974699</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -7728,20 +6840,20 @@
     <row r="69">
       <c r="A69" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_11.fasta</t>
+          <t>label_UMGS1884_21.fasta</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.009479085273260936</v>
+        <v>0.0007494327498881862</v>
       </c>
       <c r="C69" t="n">
-        <v>5.850365675537862e-07</v>
+        <v>3.537492390619663e-05</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9905203296901717</v>
+        <v>0.9992151923262056</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9905203296901717</v>
+        <v>0.9992151923262056</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -7752,20 +6864,20 @@
     <row r="70">
       <c r="A70" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_15.fasta</t>
+          <t>label_UMGS1884_32.fasta</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.001838660832762566</v>
+        <v>0.007117613220140844</v>
       </c>
       <c r="C70" t="n">
-        <v>3.522867959693143e-06</v>
+        <v>1.06387616231943e-06</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9981578162992778</v>
+        <v>0.9928813229036968</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9981578162992778</v>
+        <v>0.9928813229036968</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -7776,20 +6888,20 @@
     <row r="71">
       <c r="A71" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_2.fasta</t>
+          <t>label_UMGS1884_35.fasta</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.0161941446144015</v>
+        <v>0.005403142910301265</v>
       </c>
       <c r="C71" t="n">
-        <v>2.290465696845792e-08</v>
+        <v>3.720498878905075e-05</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9838058324809417</v>
+        <v>0.9945596521009096</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9838058324809417</v>
+        <v>0.9945596521009096</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -7800,20 +6912,20 @@
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_23.fasta</t>
+          <t>label_UMGS1884_36.fasta</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.01985992260677893</v>
+        <v>0.001948560178786715</v>
       </c>
       <c r="C72" t="n">
-        <v>3.407251839333899e-05</v>
+        <v>0.0005406648863483858</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9801060048748277</v>
+        <v>0.9975107749348648</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9801060048748277</v>
+        <v>0.9975107749348648</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -7824,44 +6936,44 @@
     <row r="73">
       <c r="A73" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_3.fasta</t>
+          <t>label_UMGS1884_40.fasta</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.9392028295168938</v>
+        <v>0.003661018785237125</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0002872317996805588</v>
+        <v>0.0001300921492868338</v>
       </c>
       <c r="D73" t="n">
-        <v>0.06050993868342562</v>
+        <v>0.996208889065476</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9392028295168938</v>
+        <v>0.996208889065476</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>s__QALS01 sp003150575</t>
+          <t>s__QALS01 sp900555925</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_4.fasta</t>
+          <t>label_UMGS1884_47.fasta</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.003773150459184237</v>
+        <v>0.04029641915438411</v>
       </c>
       <c r="C74" t="n">
-        <v>1.823422316807551e-05</v>
+        <v>4.971215820848107e-05</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9962086153176477</v>
+        <v>0.9596538686874074</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9962086153176477</v>
+        <v>0.9596538686874074</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -7872,20 +6984,20 @@
     <row r="75">
       <c r="A75" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_43.fasta</t>
+          <t>label_UMGS1884_53.fasta</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.002032866038575397</v>
+        <v>0.007744715891255365</v>
       </c>
       <c r="C75" t="n">
-        <v>1.451025868861497e-05</v>
+        <v>0.0001508534474618932</v>
       </c>
       <c r="D75" t="n">
-        <v>0.997952623702736</v>
+        <v>0.9921044306612827</v>
       </c>
       <c r="E75" t="n">
-        <v>0.997952623702736</v>
+        <v>0.9921044306612827</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -7896,20 +7008,20 @@
     <row r="76">
       <c r="A76" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_44.fasta</t>
+          <t>label_UMGS1884_56.fasta</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.003015399937856289</v>
+        <v>0.01049234049150051</v>
       </c>
       <c r="C76" t="n">
-        <v>0.002545982213475509</v>
+        <v>0.000829164173796719</v>
       </c>
       <c r="D76" t="n">
-        <v>0.9944386178486683</v>
+        <v>0.9886784953347028</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9944386178486683</v>
+        <v>0.9886784953347028</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -7920,20 +7032,20 @@
     <row r="77">
       <c r="A77" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_46.fasta</t>
+          <t>label_UMGS1884_62.fasta</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.003849185202587754</v>
+        <v>0.02794553208405567</v>
       </c>
       <c r="C77" t="n">
-        <v>9.556719867134557e-05</v>
+        <v>0.05622788129318435</v>
       </c>
       <c r="D77" t="n">
-        <v>0.996055247598741</v>
+        <v>0.91582658662276</v>
       </c>
       <c r="E77" t="n">
-        <v>0.996055247598741</v>
+        <v>0.91582658662276</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -7944,20 +7056,20 @@
     <row r="78">
       <c r="A78" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_49.fasta</t>
+          <t>label_UMGS1884_64.fasta</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.001702147029490831</v>
+        <v>0.08385824075808333</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0001144422663580103</v>
+        <v>0.2043837104962608</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9981834107041511</v>
+        <v>0.711758048745656</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9981834107041511</v>
+        <v>0.711758048745656</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -7968,20 +7080,20 @@
     <row r="79">
       <c r="A79" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_5.fasta</t>
+          <t>label_UMGS1884_65.fasta</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.3687379221098259</v>
+        <v>0.0812389708224607</v>
       </c>
       <c r="C79" t="n">
-        <v>8.990047076478546e-06</v>
+        <v>0.03901690262037657</v>
       </c>
       <c r="D79" t="n">
-        <v>0.6312530878430977</v>
+        <v>0.8797441265571627</v>
       </c>
       <c r="E79" t="n">
-        <v>0.6312530878430977</v>
+        <v>0.8797441265571627</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -7992,20 +7104,20 @@
     <row r="80">
       <c r="A80" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_66.fasta</t>
+          <t>label_UMGS1884_68.fasta</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.003048328762687142</v>
+        <v>0.1037047716272754</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0008564431337379901</v>
+        <v>0.01814778679909931</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9960952281035749</v>
+        <v>0.8781474415736251</v>
       </c>
       <c r="E80" t="n">
-        <v>0.9960952281035749</v>
+        <v>0.8781474415736251</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -8016,20 +7128,20 @@
     <row r="81">
       <c r="A81" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_69.fasta</t>
+          <t>label_UMGS1884_76.fasta</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.04636330600831663</v>
+        <v>0.02175746920380628</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0001887827973700029</v>
+        <v>0.07519789252505403</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9534479111943134</v>
+        <v>0.9030446382711396</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9534479111943134</v>
+        <v>0.9030446382711396</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -8040,20 +7152,20 @@
     <row r="82">
       <c r="A82" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_75.fasta</t>
+          <t>label_UMGS1884_8.fasta</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.08005834571467617</v>
+        <v>0.1764125811892235</v>
       </c>
       <c r="C82" t="n">
-        <v>0.04340920445007916</v>
+        <v>9.884720518856645e-07</v>
       </c>
       <c r="D82" t="n">
-        <v>0.8765324498352446</v>
+        <v>0.8235864303387246</v>
       </c>
       <c r="E82" t="n">
-        <v>0.8765324498352446</v>
+        <v>0.8235864303387246</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -8064,454 +7176,22 @@
     <row r="83">
       <c r="A83" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1884_79.fasta</t>
+          <t>label_UMGS1884_82.fasta</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.2259856622483526</v>
+        <v>0.0180191880033077</v>
       </c>
       <c r="C83" t="n">
-        <v>0.1594244562608081</v>
+        <v>0.1142754347865623</v>
       </c>
       <c r="D83" t="n">
-        <v>0.6145898814908394</v>
+        <v>0.8677053772101301</v>
       </c>
       <c r="E83" t="n">
-        <v>0.6145898814908394</v>
+        <v>0.8677053772101301</v>
       </c>
       <c r="F83" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1884_81.fasta</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>0.02632441025630883</v>
-      </c>
-      <c r="C84" t="n">
-        <v>0.002159871268224602</v>
-      </c>
-      <c r="D84" t="n">
-        <v>0.9715157184754666</v>
-      </c>
-      <c r="E84" t="n">
-        <v>0.9715157184754666</v>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1884_14.fasta</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>0.008281761270897402</v>
-      </c>
-      <c r="C85" t="n">
-        <v>1.352379457117169e-07</v>
-      </c>
-      <c r="D85" t="n">
-        <v>0.991718103491157</v>
-      </c>
-      <c r="E85" t="n">
-        <v>0.991718103491157</v>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1884_19.fasta</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>0.001550259748679411</v>
-      </c>
-      <c r="C86" t="n">
-        <v>1.371653850678083e-06</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0.9984483685974699</v>
-      </c>
-      <c r="E86" t="n">
-        <v>0.9984483685974699</v>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1884_21.fasta</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>0.0007494327498881862</v>
-      </c>
-      <c r="C87" t="n">
-        <v>3.537492390619663e-05</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0.9992151923262056</v>
-      </c>
-      <c r="E87" t="n">
-        <v>0.9992151923262056</v>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1884_32.fasta</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>0.007117613220140844</v>
-      </c>
-      <c r="C88" t="n">
-        <v>1.06387616231943e-06</v>
-      </c>
-      <c r="D88" t="n">
-        <v>0.9928813229036968</v>
-      </c>
-      <c r="E88" t="n">
-        <v>0.9928813229036968</v>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1884_35.fasta</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>0.005403142910301265</v>
-      </c>
-      <c r="C89" t="n">
-        <v>3.720498878905075e-05</v>
-      </c>
-      <c r="D89" t="n">
-        <v>0.9945596521009096</v>
-      </c>
-      <c r="E89" t="n">
-        <v>0.9945596521009096</v>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1884_36.fasta</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>0.001948560178786715</v>
-      </c>
-      <c r="C90" t="n">
-        <v>0.0005406648863483858</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0.9975107749348648</v>
-      </c>
-      <c r="E90" t="n">
-        <v>0.9975107749348648</v>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1884_40.fasta</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>0.003661018785237125</v>
-      </c>
-      <c r="C91" t="n">
-        <v>0.0001300921492868338</v>
-      </c>
-      <c r="D91" t="n">
-        <v>0.996208889065476</v>
-      </c>
-      <c r="E91" t="n">
-        <v>0.996208889065476</v>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1884_47.fasta</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>0.04029641915438411</v>
-      </c>
-      <c r="C92" t="n">
-        <v>4.971215820848107e-05</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0.9596538686874074</v>
-      </c>
-      <c r="E92" t="n">
-        <v>0.9596538686874074</v>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1884_53.fasta</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>0.007744715891255365</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0.0001508534474618932</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0.9921044306612827</v>
-      </c>
-      <c r="E93" t="n">
-        <v>0.9921044306612827</v>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1884_56.fasta</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>0.01049234049150051</v>
-      </c>
-      <c r="C94" t="n">
-        <v>0.000829164173796719</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0.9886784953347028</v>
-      </c>
-      <c r="E94" t="n">
-        <v>0.9886784953347028</v>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1884_62.fasta</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>0.02794553208405567</v>
-      </c>
-      <c r="C95" t="n">
-        <v>0.05622788129318435</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0.91582658662276</v>
-      </c>
-      <c r="E95" t="n">
-        <v>0.91582658662276</v>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1884_64.fasta</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>0.08385824075808333</v>
-      </c>
-      <c r="C96" t="n">
-        <v>0.2043837104962608</v>
-      </c>
-      <c r="D96" t="n">
-        <v>0.711758048745656</v>
-      </c>
-      <c r="E96" t="n">
-        <v>0.711758048745656</v>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1884_65.fasta</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>0.0812389708224607</v>
-      </c>
-      <c r="C97" t="n">
-        <v>0.03901690262037657</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0.8797441265571627</v>
-      </c>
-      <c r="E97" t="n">
-        <v>0.8797441265571627</v>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1884_68.fasta</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>0.1037047716272754</v>
-      </c>
-      <c r="C98" t="n">
-        <v>0.01814778679909931</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0.8781474415736251</v>
-      </c>
-      <c r="E98" t="n">
-        <v>0.8781474415736251</v>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1884_76.fasta</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>0.02175746920380628</v>
-      </c>
-      <c r="C99" t="n">
-        <v>0.07519789252505403</v>
-      </c>
-      <c r="D99" t="n">
-        <v>0.9030446382711396</v>
-      </c>
-      <c r="E99" t="n">
-        <v>0.9030446382711396</v>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1884_8.fasta</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>0.1764125811892235</v>
-      </c>
-      <c r="C100" t="n">
-        <v>9.884720518856645e-07</v>
-      </c>
-      <c r="D100" t="n">
-        <v>0.8235864303387246</v>
-      </c>
-      <c r="E100" t="n">
-        <v>0.8235864303387246</v>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1884_82.fasta</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>0.0180191880033077</v>
-      </c>
-      <c r="C101" t="n">
-        <v>0.1142754347865623</v>
-      </c>
-      <c r="D101" t="n">
-        <v>0.8677053772101301</v>
-      </c>
-      <c r="E101" t="n">
-        <v>0.8677053772101301</v>
-      </c>
-      <c r="F101" t="inlineStr">
         <is>
           <t>s__QALS01 sp900555925</t>
         </is>
